--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 9:23 AM</t>
+    <t>Thursday, 24 July, 2025 9:27 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -44,7 +44,100 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 9:27 AM</t>
+    <t>ADOLOR 15 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>6.4350</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>86:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 24 July, 2025 9:28 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +347,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +359,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +767,268 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>12</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
         <v>13</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>23</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>26</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>27</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>28</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>31</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>32</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>27</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>33</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>35</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>22</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>27</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>36</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>39</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>27</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>40</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>114.655</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>42</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>43</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>44</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +1042,40 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -101,7 +113,16 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>1:0</t>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>31:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
@@ -137,7 +158,19 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 9:28 AM</t>
+    <t>مناديل FINE</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 24 July, 2025 9:56 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -828,7 +861,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -883,18 +916,18 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -903,31 +936,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -936,20 +969,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -960,7 +993,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -982,7 +1015,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -993,42 +1026,141 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>114.655</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>42</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>26</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>31</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>43</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
         <v>44</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c t="s" r="Q14" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>46</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>31</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>47</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>49</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>50</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>31</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>51</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>263.65499999999997</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>53</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>54</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>55</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1072,10 +1204,25 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -170,7 +170,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 9:56 AM</t>
+    <t>Thursday, 24 July, 2025 10:10 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -62,12 +62,33 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>99.00</t>
   </si>
   <si>
@@ -86,6 +107,21 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>-25.7400</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -143,7 +179,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>محلول ملح</t>
@@ -170,7 +209,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 10:10 AM</t>
+    <t>Thursday, 24 July, 2025 10:26 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -861,7 +900,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -910,7 +949,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -920,14 +959,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -936,31 +975,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -969,31 +1008,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1002,31 +1041,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1035,31 +1074,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1068,31 +1107,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1101,66 +1140,165 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>263.65499999999997</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
-        <v>53</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>54</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>38</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>43</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>55</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>58</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>59</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>43</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>60</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>62</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>63</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>43</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>64</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>269.745</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>66</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>67</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>68</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1219,10 +1357,25 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -209,7 +209,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 10:26 AM</t>
+    <t>Thursday, 24 July, 2025 10:27 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -209,7 +209,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 10:27 AM</t>
+    <t>Thursday, 24 July, 2025 10:28 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -62,18 +62,6 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
     <t>DEXAZONE 0.5MG 60 TAB</t>
   </si>
   <si>
@@ -179,10 +167,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
+    <t>2.0000</t>
   </si>
   <si>
     <t>محلول ملح</t>
@@ -916,7 +901,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -926,14 +911,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -942,14 +927,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -966,7 +951,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -999,7 +984,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1008,14 +993,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1025,14 +1010,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1054,18 +1039,18 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1074,20 +1059,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1098,7 +1083,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1120,7 +1105,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1131,7 +1116,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1147,24 +1132,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1173,20 +1158,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1197,7 +1182,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1206,99 +1191,66 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>254.74500000000001</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
         <v>61</v>
       </c>
-      <c t="s" r="Q18" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" ht="25.5" customHeight="1">
-      <c r="A19" s="7">
-        <v>13</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c t="s" r="C19" s="8">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
         <v>62</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c t="s" r="H19" s="9">
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
         <v>63</v>
       </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c t="s" r="L19" s="10">
-        <v>43</v>
-      </c>
-      <c r="M19" s="10"/>
-      <c t="s" r="N19" s="8">
-        <v>64</v>
-      </c>
-      <c r="O19" s="8"/>
-      <c t="s" r="P19" s="11">
-        <v>65</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>269.745</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
-        <v>66</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
-        <v>67</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
-        <v>68</v>
-      </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1367,15 +1319,10 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -194,7 +194,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 10:28 AM</t>
+    <t>Thursday, 24 July, 2025 10:41 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -122,6 +122,15 @@
     <t>14.4000</t>
   </si>
   <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
@@ -194,7 +203,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 10:41 AM</t>
+    <t>Thursday, 24 July, 2025 10:42 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1033,24 +1042,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1059,28 +1068,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>18</v>
@@ -1092,28 +1101,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
@@ -1125,20 +1134,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1165,21 +1174,21 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>18</v>
@@ -1191,66 +1200,99 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>254.74500000000001</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>60</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
         <v>61</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>42</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>62</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
         <v>63</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c t="s" r="Q19" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>304.745</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>64</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>65</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>66</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1319,10 +1361,15 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -203,7 +203,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 10:42 AM</t>
+    <t>Thursday, 24 July, 2025 10:44 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -110,6 +110,18 @@
     <t>0:-2</t>
   </si>
   <si>
+    <t>TRI-B I.M. 3 DOUBLE AMP.</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -161,13 +173,16 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>86:0</t>
+    <t>85:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
-    <t>20.0000</t>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -179,31 +194,34 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>محلول رينجر</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
     <t>9:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 10:44 AM</t>
+    <t>Thursday, 24 July, 2025 10:50 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1026,7 +1044,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1042,7 +1060,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1052,11 +1070,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1068,31 +1086,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1101,20 +1119,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1147,7 +1165,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1174,24 +1192,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1200,28 +1218,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>18</v>
@@ -1233,66 +1251,132 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>304.745</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>65</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>66</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>46</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>63</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
         <v>64</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
-        <v>65</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
-        <v>66</v>
-      </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c t="s" r="Q20" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>67</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>62</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>46</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>68</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>392.745</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>70</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>71</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>72</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1366,10 +1450,20 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -221,7 +221,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 10:50 AM</t>
+    <t>Thursday, 24 July, 2025 10:52 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>2.0000</t>
+  </si>
+  <si>
+    <t>شامبو جونسون 100 مل</t>
+  </si>
+  <si>
+    <t>50.00</t>
   </si>
   <si>
     <t>محلول رينجر</t>
@@ -1258,7 +1264,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1268,11 +1274,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
@@ -1284,14 +1290,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1301,11 +1307,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1324,7 +1330,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1334,49 +1340,82 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>392.745</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>69</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>64</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>46</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
         <v>70</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
         <v>71</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c t="s" r="Q22" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>442.745</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
         <v>72</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>73</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>74</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1460,10 +1499,15 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -122,12 +122,21 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>VECOVARTEC PLUS 20/12.5MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>90.00</t>
   </si>
   <si>
@@ -185,6 +194,18 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>زيت فاتيكا وسط 90 مل</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -227,7 +248,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 10:52 AM</t>
+    <t>Thursday, 24 July, 2025 11:09 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1083,7 +1104,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1132,24 +1153,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1158,28 +1179,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>18</v>
@@ -1191,31 +1212,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1224,31 +1245,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>60</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1264,21 +1285,21 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
@@ -1290,28 +1311,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1323,28 +1344,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>18</v>
@@ -1356,66 +1377,132 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>442.745</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>74</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>75</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>49</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
         <v>72</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
         <v>73</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
-        <v>74</v>
-      </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c t="s" r="Q23" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>76</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>71</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>49</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>77</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>523.745</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>79</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>80</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>81</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1504,10 +1591,20 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -194,6 +194,9 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>رباط ضغط 6سم</t>
+  </si>
+  <si>
     <t>زيت فاتيكا وسط 90 مل</t>
   </si>
   <si>
@@ -248,7 +251,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 11:09 AM</t>
+    <t>Thursday, 24 July, 2025 11:19 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1285,7 +1288,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1295,11 +1298,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
@@ -1311,14 +1314,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1328,11 +1331,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1344,7 +1347,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1361,11 +1364,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>18</v>
@@ -1377,14 +1380,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1394,11 +1397,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -1410,14 +1413,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1427,11 +1430,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>18</v>
@@ -1443,14 +1446,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1460,49 +1463,82 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>523.745</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>77</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>72</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>49</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>78</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
         <v>79</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c t="s" r="Q25" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>538.745</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
         <v>80</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
         <v>81</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>82</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1601,10 +1637,15 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -251,7 +251,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 11:19 AM</t>
+    <t>Thursday, 24 July, 2025 11:34 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>DEXAZONE 0.5MG 60 TAB</t>
   </si>
   <si>
@@ -96,9 +108,6 @@
   </si>
   <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>2:2</t>
   </si>
   <si>
     <t>39.00</t>
@@ -958,7 +967,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -968,14 +977,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -984,14 +993,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1008,7 +1017,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1041,7 +1050,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1050,14 +1059,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1067,14 +1076,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1083,14 +1092,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1100,14 +1109,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1116,14 +1125,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1140,7 +1149,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1156,7 +1165,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1189,24 +1198,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1215,31 +1224,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1248,31 +1257,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1281,31 +1290,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1314,31 +1323,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1347,20 +1356,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1371,7 +1380,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1387,13 +1396,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1401,10 +1410,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1413,20 +1422,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1434,10 +1443,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1446,31 +1455,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1479,66 +1488,99 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>538.745</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>80</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>75</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>52</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>81</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
         <v>82</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c t="s" r="Q26" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>559.53499999999997</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>83</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>84</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>85</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1642,10 +1684,15 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -260,7 +260,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 11:34 AM</t>
+    <t>Thursday, 24 July, 2025 11:39 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -95,6 +95,18 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>FUTACOXIB 90 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>207.00</t>
+  </si>
+  <si>
+    <t>68.3100</t>
+  </si>
+  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -134,9 +146,6 @@
     <t>VECOVARTEC PLUS 20/12.5MG 21 F.C. TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>56.00</t>
   </si>
   <si>
@@ -260,7 +269,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 11:39 AM</t>
+    <t>Thursday, 24 July, 2025 11:40 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1066,7 +1075,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1076,14 +1085,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1099,7 +1108,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1109,14 +1118,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>39</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1165,7 +1174,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1182,7 +1191,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1198,7 +1207,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1231,24 +1240,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1257,28 +1266,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>22</v>
@@ -1290,31 +1299,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1323,31 +1332,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1356,28 +1365,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>22</v>
@@ -1389,20 +1398,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1429,13 +1438,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1443,7 +1452,7 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>22</v>
@@ -1455,20 +1464,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1476,7 +1485,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>22</v>
@@ -1488,28 +1497,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>22</v>
@@ -1521,66 +1530,99 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>559.53499999999997</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>83</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>78</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>55</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>84</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
         <v>85</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c t="s" r="Q27" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>627.84500000000003</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>86</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>87</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>88</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1689,10 +1731,15 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -269,7 +269,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 11:40 AM</t>
+    <t>Thursday, 24 July, 2025 11:50 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -119,6 +119,18 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -269,7 +281,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 11:50 AM</t>
+    <t>Thursday, 24 July, 2025 11:53 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1108,7 +1120,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1118,14 +1130,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1141,7 +1153,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1151,14 +1163,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>43</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1174,7 +1186,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1184,11 +1196,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>22</v>
@@ -1200,7 +1212,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1217,14 +1229,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1233,7 +1245,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1250,11 +1262,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1266,31 +1278,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1299,20 +1311,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1345,7 +1357,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1356,7 +1368,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1365,31 +1377,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1398,28 +1410,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>22</v>
@@ -1438,21 +1450,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>22</v>
@@ -1464,7 +1476,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1477,15 +1489,15 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>22</v>
@@ -1497,28 +1509,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>22</v>
@@ -1543,15 +1555,15 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>22</v>
@@ -1563,66 +1575,99 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>627.84500000000003</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
-        <v>86</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>87</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>82</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>59</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
         <v>88</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>650.84500000000003</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>90</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>91</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>92</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1736,10 +1781,15 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AVAZIR 0.3% EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -77,9 +89,6 @@
     <t>DEXAZONE 0.5MG 60 TAB</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -281,7 +290,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 11:53 AM</t>
+    <t>Thursday, 24 July, 2025 11:57 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -972,7 +981,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1021,7 +1030,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1038,7 +1047,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1054,7 +1063,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1064,14 +1073,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1080,14 +1089,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1097,11 +1106,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1113,14 +1122,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1130,11 +1139,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1146,14 +1155,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1170,7 +1179,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1179,14 +1188,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1196,14 +1205,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1212,14 +1221,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1236,7 +1245,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1252,7 +1261,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1269,7 +1278,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1285,7 +1294,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1318,24 +1327,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1344,31 +1353,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1377,31 +1386,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1410,31 +1419,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1443,31 +1452,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1476,20 +1485,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1500,7 +1509,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1516,13 +1525,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1530,10 +1539,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1542,20 +1551,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1563,10 +1572,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1575,31 +1584,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1608,66 +1617,99 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>650.84500000000003</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>90</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>85</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>62</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
         <v>91</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
         <v>92</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c t="s" r="Q29" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>676.84500000000003</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>93</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>94</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>95</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1786,10 +1828,15 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -290,7 +290,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 11:57 AM</t>
+    <t>Thursday, 24 July, 2025 12:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>AVAZIR 0.3% EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -119,13 +131,16 @@
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
-    <t>4:1</t>
+    <t>4:0</t>
   </si>
   <si>
     <t>54.00</t>
   </si>
   <si>
-    <t>17.8200</t>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
@@ -239,9 +254,6 @@
     <t>زيت فاتيكا وسط 90 مل</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
@@ -254,7 +266,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
   </si>
   <si>
     <t>شامبو جونسون 100 مل</t>
@@ -266,9 +281,6 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -290,7 +302,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 12:01 PM</t>
+    <t>Thursday, 24 July, 2025 12:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -981,7 +993,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1014,7 +1026,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1030,7 +1042,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1040,11 +1052,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1056,14 +1068,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1073,14 +1085,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1089,14 +1101,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1113,7 +1125,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1179,7 +1191,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1188,14 +1200,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1205,14 +1217,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1221,14 +1233,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1245,7 +1257,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1254,14 +1266,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1271,14 +1283,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1287,14 +1299,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1304,14 +1316,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1320,14 +1332,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1337,11 +1349,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1353,20 +1365,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1377,7 +1389,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1399,18 +1411,18 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1419,31 +1431,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>73</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1459,24 +1471,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1485,31 +1497,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1518,31 +1530,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1551,31 +1563,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1584,31 +1596,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1617,31 +1629,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1650,66 +1662,99 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>676.84500000000003</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
-        <v>93</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>94</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>86</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>67</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>95</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>710.54499999999996</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>97</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>98</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>99</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1833,10 +1878,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -167,6 +167,15 @@
     <t>0:-2</t>
   </si>
   <si>
+    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>TRI-B I.M. 3 DOUBLE AMP.</t>
   </si>
   <si>
@@ -302,7 +311,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 12:04 PM</t>
+    <t>Thursday, 24 July, 2025 12:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1273,7 +1282,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1283,11 +1292,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>22</v>
@@ -1299,14 +1308,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1356,7 +1365,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1405,24 +1414,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1431,28 +1440,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>22</v>
@@ -1464,31 +1473,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1497,31 +1506,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1530,28 +1539,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>22</v>
@@ -1570,13 +1579,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1587,7 +1596,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>86</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1596,7 +1605,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1609,18 +1618,18 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1629,28 +1638,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>22</v>
@@ -1669,21 +1678,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>22</v>
@@ -1695,66 +1704,99 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>710.54499999999996</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>97</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>89</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>70</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
         <v>98</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
         <v>99</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c t="s" r="Q31" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>780.54499999999996</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>100</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>101</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>102</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1883,10 +1925,15 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -311,7 +311,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 12:05 PM</t>
+    <t>Thursday, 24 July, 2025 12:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -143,6 +143,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -278,9 +290,6 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>شامبو جونسون 100 مل</t>
   </si>
   <si>
@@ -302,6 +311,15 @@
     <t>9:0</t>
   </si>
   <si>
+    <t>معجون سنسوداين 50 مل</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>مناديل FINE</t>
   </si>
   <si>
@@ -311,7 +329,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 12:07 PM</t>
+    <t>Thursday, 24 July, 2025 12:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1249,7 +1267,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1259,14 +1277,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1282,7 +1300,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1299,7 +1317,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1308,14 +1326,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1348,7 +1366,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1358,11 +1376,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>22</v>
@@ -1374,7 +1392,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1391,14 +1409,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1407,7 +1425,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1424,11 +1442,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1440,31 +1458,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1473,20 +1491,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1519,7 +1537,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1530,7 +1548,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>81</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1539,31 +1557,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1572,28 +1590,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>22</v>
@@ -1605,31 +1623,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>89</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1651,7 +1669,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1659,10 +1677,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1671,28 +1689,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>22</v>
@@ -1711,21 +1729,21 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>22</v>
@@ -1737,66 +1755,132 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>780.54499999999996</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>100</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>99</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>74</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>101</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
         <v>102</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c t="s" r="Q32" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>103</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>45</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>74</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>104</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>872.54499999999996</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>106</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>107</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>108</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1930,10 +2014,20 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -329,7 +329,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 12:12 PM</t>
+    <t>Thursday, 24 July, 2025 12:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -329,7 +329,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 12:17 PM</t>
+    <t>Thursday, 24 July, 2025 12:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -98,6 +110,15 @@
     <t>20.7900</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
     <t>DEXAZONE 0.5MG 60 TAB</t>
   </si>
   <si>
@@ -230,9 +251,6 @@
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
-    <t>11:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -287,7 +305,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
   </si>
   <si>
     <t>شامبو جونسون 100 مل</t>
@@ -329,7 +350,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 12:22 PM</t>
+    <t>Thursday, 24 July, 2025 12:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1086,7 +1107,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1102,7 +1123,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1112,11 +1133,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1128,14 +1149,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1145,14 +1166,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1161,14 +1182,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1201,7 +1222,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1211,14 +1232,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1227,14 +1248,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1244,11 +1265,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1260,14 +1281,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1277,14 +1298,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1293,14 +1314,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1317,7 +1338,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1326,14 +1347,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1350,7 +1371,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1366,7 +1387,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1376,14 +1397,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>62</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1399,7 +1420,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1432,7 +1453,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1442,14 +1463,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1458,14 +1479,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1475,14 +1496,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1491,31 +1512,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1524,31 +1545,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1557,31 +1578,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>85</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1590,28 +1611,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>22</v>
@@ -1630,24 +1651,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1656,31 +1677,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1696,13 +1717,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1710,7 +1731,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>22</v>
@@ -1722,31 +1743,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1755,28 +1776,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>22</v>
@@ -1788,28 +1809,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>22</v>
@@ -1821,66 +1842,132 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>872.54499999999996</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>107</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
         <v>106</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
-        <v>107</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>80</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
         <v>108</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>110</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>52</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>80</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>111</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>902.54499999999996</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>113</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>114</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>115</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2024,10 +2111,20 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -221,6 +221,18 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>VECOVARTEC PLUS 20/12.5MG 21 F.C. TAB.</t>
   </si>
   <si>
@@ -284,9 +296,6 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>رباط ضغط 6سم</t>
   </si>
   <si>
@@ -320,9 +329,6 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -350,7 +356,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 12:30 PM</t>
+    <t>Thursday, 24 July, 2025 12:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1486,7 +1492,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1503,7 +1509,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1512,7 +1518,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1529,14 +1535,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1545,7 +1551,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1562,11 +1568,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1578,20 +1584,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1602,7 +1608,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1618,13 +1624,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1657,7 +1663,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1668,7 +1674,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1677,31 +1683,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1710,28 +1716,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>22</v>
@@ -1750,13 +1756,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1767,7 +1773,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1776,7 +1782,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1789,18 +1795,18 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1809,28 +1815,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>22</v>
@@ -1849,21 +1855,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>22</v>
@@ -1882,21 +1888,21 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>22</v>
@@ -1908,66 +1914,99 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>902.54499999999996</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>112</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>52</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>84</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
         <v>113</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
         <v>114</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c t="s" r="Q36" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>950.54499999999996</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
         <v>115</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>116</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>117</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2121,10 +2160,15 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -326,6 +326,15 @@
     <t>50.00</t>
   </si>
   <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>محلول رينجر</t>
   </si>
   <si>
@@ -356,7 +365,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 12:52 PM</t>
+    <t>Thursday, 24 July, 2025 12:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1855,7 +1864,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1865,11 +1874,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>22</v>
@@ -1881,14 +1890,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1902,7 +1911,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>22</v>
@@ -1914,14 +1923,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1931,11 +1940,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>22</v>
@@ -1954,7 +1963,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1975,38 +1984,71 @@
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>950.54499999999996</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>115</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>52</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>84</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>116</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
         <v>117</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c t="s" r="Q37" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>970.54499999999996</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>118</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>119</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>120</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2165,10 +2207,15 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -365,7 +365,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 12:53 PM</t>
+    <t>Thursday, 24 July, 2025 1:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -296,6 +296,12 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
     <t>رباط ضغط 6سم</t>
   </si>
   <si>
@@ -365,7 +371,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 1:24 PM</t>
+    <t>Thursday, 24 July, 2025 1:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1732,7 +1738,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1742,11 +1748,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>22</v>
@@ -1758,14 +1764,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1775,11 +1781,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>22</v>
@@ -1791,14 +1797,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1808,14 +1814,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>102</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1824,7 +1830,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1841,14 +1847,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1864,7 +1870,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1874,11 +1880,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>22</v>
@@ -1890,14 +1896,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1907,7 +1913,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -1930,7 +1936,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1944,7 +1950,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>22</v>
@@ -1963,7 +1969,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1973,11 +1979,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>22</v>
@@ -1989,14 +1995,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2006,49 +2012,82 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>970.54499999999996</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>117</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>52</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>84</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>118</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
         <v>119</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c t="s" r="Q38" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1010.545</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
         <v>120</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>121</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>122</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2212,10 +2251,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -263,13 +263,16 @@
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
     <t>30.00</t>
   </si>
   <si>
-    <t>30.0000</t>
+    <t>60.0000</t>
   </si>
   <si>
     <t>بلاستر مترسيلك 2 سم</t>
@@ -371,7 +374,13 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 1:25 PM</t>
+    <t>مناديل بكر فاين</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>Thursday, 24 July, 2025 2:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1639,24 +1648,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1665,28 +1674,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>22</v>
@@ -1698,28 +1707,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>73</v>
@@ -1731,7 +1740,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1744,15 +1753,15 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>22</v>
@@ -1764,7 +1773,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1777,15 +1786,15 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>22</v>
@@ -1797,7 +1806,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1810,15 +1819,15 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>22</v>
@@ -1830,7 +1839,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1843,18 +1852,18 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1863,7 +1872,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1876,11 +1885,11 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -1896,28 +1905,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>22</v>
@@ -1929,7 +1938,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1942,7 +1951,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1950,7 +1959,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>22</v>
@@ -1962,20 +1971,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -1983,7 +1992,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>22</v>
@@ -1995,28 +2004,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>22</v>
@@ -2028,7 +2037,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2041,53 +2050,86 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1010.545</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
-        <v>120</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>121</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
         <v>122</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>85</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>90</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1055.5450000000001</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>123</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>124</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>125</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2256,10 +2298,15 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -380,7 +380,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 2:07 PM</t>
+    <t>Thursday, 24 July, 2025 2:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -86,6 +86,21 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>CEFORAN 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
@@ -176,6 +191,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -230,9 +257,6 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>VECOVARTEC PLUS 20/12.5MG 21 F.C. TAB.</t>
   </si>
   <si>
@@ -377,10 +401,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>Thursday, 24 July, 2025 2:35 PM</t>
+    <t>Thursday, 24 July, 2025 3:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1137,7 +1158,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1146,14 +1167,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1163,14 +1184,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1179,14 +1200,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1196,11 +1217,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1212,14 +1233,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1229,11 +1250,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1245,7 +1266,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1262,14 +1283,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1278,14 +1299,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1295,14 +1316,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1311,14 +1332,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1328,14 +1349,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1368,7 +1389,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1377,14 +1398,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1394,11 +1415,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1410,14 +1431,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1427,14 +1448,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1443,14 +1464,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1460,14 +1481,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1476,14 +1497,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1493,14 +1514,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1509,14 +1530,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1526,14 +1547,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>73</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1542,14 +1563,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1559,11 +1580,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>22</v>
@@ -1575,14 +1596,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1592,14 +1613,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1608,14 +1629,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1625,14 +1646,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1641,20 +1662,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1665,7 +1686,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1681,24 +1702,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1707,20 +1728,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1731,7 +1752,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>73</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1747,21 +1768,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>22</v>
@@ -1773,31 +1794,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1806,28 +1827,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>22</v>
@@ -1839,31 +1860,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>105</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1872,28 +1893,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>22</v>
@@ -1905,31 +1926,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1938,28 +1959,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>22</v>
@@ -1971,28 +1992,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>22</v>
@@ -2004,28 +2025,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>22</v>
@@ -2037,24 +2058,24 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2070,7 +2091,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2083,53 +2104,119 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1055.5450000000001</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
-        <v>123</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
-        <v>124</v>
-      </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
-        <v>125</v>
-      </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>126</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>57</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>93</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>127</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>129</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>26</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>93</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>98</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1169.5450000000001</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>130</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>131</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>132</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2303,10 +2390,20 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -401,7 +401,7 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 3:03 PM</t>
+    <t>Thursday, 24 July, 2025 3:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -177,6 +177,15 @@
   </si>
   <si>
     <t>0:2</t>
+  </si>
+  <si>
+    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
   </si>
   <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
@@ -1405,7 +1414,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1415,14 +1424,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1431,14 +1440,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1448,11 +1457,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1464,14 +1473,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1481,11 +1490,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1497,14 +1506,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1521,7 +1530,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1530,14 +1539,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1547,14 +1556,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>74</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1570,7 +1579,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1580,11 +1589,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>22</v>
@@ -1596,14 +1605,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1620,7 +1629,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1636,7 +1645,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1653,7 +1662,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1686,7 +1695,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1735,24 +1744,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1761,31 +1770,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1794,31 +1803,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1827,20 +1836,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1848,10 +1857,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1860,28 +1869,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>22</v>
@@ -1893,28 +1902,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>22</v>
@@ -1933,13 +1942,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1950,7 +1959,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>113</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1959,7 +1968,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1972,18 +1981,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1992,28 +2001,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>22</v>
@@ -2032,21 +2041,21 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>22</v>
@@ -2058,28 +2067,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>22</v>
@@ -2091,28 +2100,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>22</v>
@@ -2131,13 +2140,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2164,59 +2173,92 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1169.5450000000001</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
-        <v>130</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
-        <v>131</v>
-      </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>132</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>26</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>96</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>101</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1359.5450000000001</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>133</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>134</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>135</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2400,10 +2442,15 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -89,328 +89,343 @@
     <t>CEFORAN 1 GM VIAL</t>
   </si>
   <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>164.0000</t>
+  </si>
+  <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>FUTACOXIB 90 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>207.00</t>
+  </si>
+  <si>
+    <t>68.3100</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>-25.7400</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
+    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>TIMOGEN 10MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>TRI-B I.M. 3 DOUBLE AMP.</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>VECOVARTEC PLUS 20/12.5MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8517:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>31:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>85:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>رباط ضغط 6سم</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا وسط 90 مل</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>شامبو جونسون 100 مل</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>محلول رينجر</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>معجون سنسوداين 50 مل</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>مناديل FINE</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>مناديل بكر فاين</t>
+  </si>
+  <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>DEXAZONE 0.5MG 60 TAB</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>FUTACOXIB 90 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>207.00</t>
-  </si>
-  <si>
-    <t>68.3100</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>-25.7400</t>
-  </si>
-  <si>
-    <t>0:-2</t>
-  </si>
-  <si>
-    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>TRI-B I.M. 3 DOUBLE AMP.</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>TUSSKAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>VECOVARTEC PLUS 20/12.5MG 21 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>ZYRTEC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>31:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>85:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>حنه جلوري سوده 1 كيس</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>رباط ضغط 6سم</t>
-  </si>
-  <si>
-    <t>زيت فاتيكا وسط 90 مل</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>شامبو جونسون 100 مل</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>قطن 100 جم</t>
-  </si>
-  <si>
-    <t>26:0</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>محلول رينجر</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>معجون سنسوداين 50 مل</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>مناديل FINE</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>مناديل بكر فاين</t>
-  </si>
-  <si>
-    <t>Thursday, 24 July, 2025 3:07 PM</t>
+    <t>Thursday, 24 July, 2025 3:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1167,7 +1182,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1176,14 +1191,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1193,11 +1208,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>22</v>
@@ -1209,14 +1224,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1226,11 +1241,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1242,14 +1257,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1259,11 +1274,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1275,7 +1290,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1292,11 +1307,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1308,7 +1323,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1325,11 +1340,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>22</v>
@@ -1341,14 +1356,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1358,11 +1373,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1374,14 +1389,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1391,14 +1406,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1407,14 +1422,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1424,11 +1439,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>22</v>
@@ -1440,14 +1455,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1457,11 +1472,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1473,14 +1488,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1490,14 +1505,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1506,14 +1521,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1523,14 +1538,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1539,14 +1554,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1556,14 +1571,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1572,14 +1587,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1589,14 +1604,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1605,14 +1620,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1622,11 +1637,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>22</v>
@@ -1638,14 +1653,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1655,14 +1670,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1671,14 +1686,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1688,11 +1703,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>22</v>
@@ -1704,14 +1719,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1721,14 +1736,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1737,14 +1752,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1754,14 +1769,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1770,31 +1785,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1803,28 +1818,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>22</v>
@@ -1836,31 +1851,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1869,31 +1884,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1902,28 +1917,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>22</v>
@@ -1935,20 +1950,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1959,7 +1974,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1975,13 +1990,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1989,10 +2004,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>116</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2001,28 +2016,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>22</v>
@@ -2034,28 +2049,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>22</v>
@@ -2067,31 +2082,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2100,28 +2115,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>22</v>
@@ -2133,7 +2148,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2146,15 +2161,15 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
@@ -2166,28 +2181,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>22</v>
@@ -2199,66 +2214,165 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>130</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>121</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
         <v>102</v>
       </c>
-      <c t="s" r="Q42" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1359.5450000000001</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>131</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
         <v>133</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>58</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>102</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
         <v>134</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
         <v>135</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c t="s" r="Q44" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>136</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>137</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>102</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>107</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>1545.5450000000001</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>138</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>139</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>140</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2447,10 +2561,25 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -140,6 +140,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -290,6 +302,12 @@
     <t>14.4000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -371,36 +389,33 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>18.0000</t>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>شامبو جونسون 100 مل</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>محلول رينجر</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
   </si>
   <si>
     <t>9:0</t>
   </si>
   <si>
-    <t>شامبو جونسون 100 مل</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>قطن 100 جم</t>
-  </si>
-  <si>
-    <t>26:0</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>محلول رينجر</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
     <t>معجون سنسوداين 50 مل</t>
   </si>
   <si>
@@ -425,7 +440,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 3:22 PM</t>
+    <t>Thursday, 24 July, 2025 3:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1330,7 +1345,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1340,14 +1355,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1356,14 +1371,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1380,7 +1395,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1396,7 +1411,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1406,14 +1421,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1429,7 +1444,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1446,7 +1461,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1455,14 +1470,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1479,7 +1494,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1512,7 +1527,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1528,7 +1543,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1538,14 +1553,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1554,14 +1569,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1578,7 +1593,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1594,7 +1609,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1604,14 +1619,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1620,14 +1635,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1637,14 +1652,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1653,14 +1668,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1670,11 +1685,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>22</v>
@@ -1686,14 +1701,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1703,11 +1718,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>22</v>
@@ -1726,7 +1741,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1736,14 +1751,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1752,14 +1767,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1769,14 +1784,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1785,14 +1800,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1802,14 +1817,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1818,14 +1833,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1842,7 +1857,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1858,7 +1873,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1868,11 +1883,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1884,31 +1899,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1917,31 +1932,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1950,31 +1965,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1983,28 +1998,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>22</v>
@@ -2023,24 +2038,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2049,24 +2064,24 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2082,31 +2097,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>121</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2122,13 +2137,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2136,7 +2151,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>22</v>
@@ -2148,31 +2163,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2188,21 +2203,21 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>22</v>
@@ -2221,21 +2236,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>22</v>
@@ -2247,24 +2262,24 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2287,21 +2302,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>22</v>
@@ -2313,66 +2328,132 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>1545.5450000000001</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>138</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>62</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>108</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
         <v>139</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
         <v>140</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c t="s" r="Q46" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>141</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>142</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>108</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>113</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>1580.2149999999999</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>143</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>144</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>145</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2576,10 +2657,20 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -440,7 +440,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 3:23 PM</t>
+    <t>Thursday, 24 July, 2025 3:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -194,6 +194,15 @@
     <t>190.0000</t>
   </si>
   <si>
+    <t>INFINITY CARE 50+ SPF LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>264.00</t>
+  </si>
+  <si>
+    <t>264.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -398,6 +407,15 @@
     <t>50.00</t>
   </si>
   <si>
+    <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
@@ -419,12 +437,6 @@
     <t>معجون سنسوداين 50 مل</t>
   </si>
   <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
     <t>مناديل FINE</t>
   </si>
   <si>
@@ -440,7 +452,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 3:29 PM</t>
+    <t>Thursday, 24 July, 2025 3:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1510,7 +1522,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1520,14 +1532,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1536,14 +1548,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1553,14 +1565,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1569,14 +1581,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1593,7 +1605,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1609,7 +1621,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1619,14 +1631,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1635,14 +1647,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1652,14 +1664,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1675,7 +1687,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1685,14 +1697,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>81</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1722,7 +1734,7 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>22</v>
@@ -1734,14 +1746,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1755,7 +1767,7 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>22</v>
@@ -1767,14 +1779,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1791,7 +1803,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1807,7 +1819,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1824,7 +1836,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1857,7 +1869,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1873,7 +1885,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1883,11 +1895,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1899,14 +1911,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1916,14 +1928,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1932,14 +1944,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1956,7 +1968,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1972,24 +1984,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1998,31 +2010,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2031,31 +2043,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2064,20 +2076,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2085,10 +2097,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2097,28 +2109,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>22</v>
@@ -2130,28 +2142,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>22</v>
@@ -2170,24 +2182,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>107</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2196,7 +2208,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2209,18 +2221,18 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2229,28 +2241,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>22</v>
@@ -2262,28 +2274,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>22</v>
@@ -2295,28 +2307,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>22</v>
@@ -2328,28 +2340,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>22</v>
@@ -2361,28 +2373,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>22</v>
@@ -2401,59 +2413,125 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>1580.2149999999999</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>142</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>65</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>111</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
         <v>143</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
         <v>144</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c t="s" r="Q48" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>145</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>146</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>111</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>116</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>1924.2149999999999</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>147</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>148</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>149</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2667,10 +2745,20 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -140,6 +140,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -218,9 +230,6 @@
     <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>39.00</t>
   </si>
   <si>
@@ -245,9 +254,6 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -269,9 +275,6 @@
     <t>TIMOGEN 10MG/5ML SYRUP 120ML</t>
   </si>
   <si>
-    <t>23.00</t>
-  </si>
-  <si>
     <t>TRI-B I.M. 3 DOUBLE AMP.</t>
   </si>
   <si>
@@ -398,30 +401,33 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>شامبو جونسون 100 مل</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>شامبو جونسون 100 مل</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>قطن 100 جم</t>
-  </si>
-  <si>
-    <t>26:0</t>
-  </si>
-  <si>
     <t>محلول رينجر</t>
   </si>
   <si>
@@ -452,7 +458,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 3:40 PM</t>
+    <t>Thursday, 24 July, 2025 3:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1374,7 +1380,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1390,7 +1396,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1400,14 +1406,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1416,14 +1422,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1440,7 +1446,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1456,7 +1462,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1466,14 +1472,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1489,7 +1495,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1506,7 +1512,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1515,14 +1521,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1532,11 +1538,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>22</v>
@@ -1548,14 +1554,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1572,7 +1578,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1605,7 +1611,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1621,7 +1627,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1638,7 +1644,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1654,7 +1660,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1664,14 +1670,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1680,14 +1686,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1697,14 +1703,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1713,14 +1719,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1730,14 +1736,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1746,14 +1752,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1763,11 +1769,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>22</v>
@@ -1786,7 +1792,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1796,11 +1802,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>22</v>
@@ -1812,14 +1818,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1829,14 +1835,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>69</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1845,14 +1851,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1862,14 +1868,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1878,14 +1884,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1895,14 +1901,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1911,14 +1917,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1928,11 +1934,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1944,14 +1950,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1961,14 +1967,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1977,14 +1983,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1994,14 +2000,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2010,31 +2016,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2043,31 +2049,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2076,31 +2082,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>69</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2109,31 +2115,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2142,28 +2148,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>22</v>
@@ -2182,21 +2188,21 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
@@ -2208,31 +2214,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>110</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2241,31 +2247,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2274,28 +2280,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>22</v>
@@ -2307,28 +2313,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>22</v>
@@ -2340,24 +2346,24 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2380,21 +2386,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>22</v>
@@ -2413,21 +2419,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>22</v>
@@ -2439,28 +2445,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -2472,66 +2478,99 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>147</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>148</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>112</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
         <v>117</v>
       </c>
-      <c t="s" r="Q49" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>1924.2149999999999</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>147</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>148</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>1949.2149999999999</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
         <v>149</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>150</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>151</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2755,10 +2794,15 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -173,6 +173,18 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:6</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>FUTACOXIB 90 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -288,9 +300,6 @@
   </si>
   <si>
     <t>TUSSKAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>24.00</t>
   </si>
   <si>
     <t>48.0000</t>
@@ -1495,7 +1504,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1505,14 +1514,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1528,7 +1537,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1545,7 +1554,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1554,14 +1563,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1571,11 +1580,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>22</v>
@@ -1587,14 +1596,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1611,7 +1620,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1627,7 +1636,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1637,14 +1646,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1653,14 +1662,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1670,14 +1679,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1686,14 +1695,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1707,10 +1716,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1719,14 +1728,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1736,14 +1745,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1752,14 +1761,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1769,14 +1778,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1785,14 +1794,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1802,11 +1811,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>22</v>
@@ -1818,14 +1827,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1835,11 +1844,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>22</v>
@@ -1858,7 +1867,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1868,14 +1877,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1884,14 +1893,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1901,14 +1910,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1924,7 +1933,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1941,7 +1950,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1957,7 +1966,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1967,11 +1976,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1983,14 +1992,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2000,14 +2009,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2016,14 +2025,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2040,7 +2049,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2056,24 +2065,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2082,31 +2091,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2115,31 +2124,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2148,20 +2157,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2169,10 +2178,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2181,28 +2190,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
@@ -2214,28 +2223,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>22</v>
@@ -2254,24 +2263,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2280,31 +2289,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2313,28 +2322,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>22</v>
@@ -2353,17 +2362,17 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2386,21 +2395,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>22</v>
@@ -2412,28 +2421,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>22</v>
@@ -2445,28 +2454,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -2478,28 +2487,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>22</v>
@@ -2518,59 +2527,92 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>1949.2149999999999</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
-        <v>149</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>150</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
         <v>151</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>115</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>120</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>1953.0550000000001</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>152</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>153</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>154</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2799,10 +2841,15 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -467,7 +467,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 3:42 PM</t>
+    <t>Thursday, 24 July, 2025 3:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -125,12 +125,15 @@
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
-    <t>2:4</t>
+    <t>2:0</t>
   </si>
   <si>
     <t>65.00</t>
   </si>
   <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>DEXAZONE 0.5MG 60 TAB</t>
   </si>
   <si>
@@ -143,9 +146,6 @@
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>23.00</t>
   </si>
   <si>
@@ -377,6 +377,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">بيبرونه ALGO صغيره </t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -401,16 +410,13 @@
     <t>زيت فاتيكا وسط 90 مل</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>22.0000</t>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>15:0</t>
   </si>
   <si>
     <t>شامبو جونسون 100 مل</t>
@@ -1320,10 +1326,10 @@
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1332,7 +1338,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1349,11 +1355,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1365,14 +1371,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1669,7 +1675,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1917,7 +1923,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2009,11 +2015,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2115,7 +2121,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2164,7 +2170,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2174,14 +2180,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2190,14 +2196,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2211,10 +2217,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2223,14 +2229,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2240,11 +2246,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>22</v>
@@ -2256,14 +2262,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2273,11 +2279,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>22</v>
@@ -2296,7 +2302,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2306,14 +2312,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2322,7 +2328,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2339,14 +2345,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2362,7 +2368,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2376,7 +2382,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>22</v>
@@ -2388,14 +2394,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2405,11 +2411,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>22</v>
@@ -2421,14 +2427,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2438,7 +2444,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2461,7 +2467,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2475,7 +2481,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -2494,7 +2500,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2504,11 +2510,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>22</v>
@@ -2520,14 +2526,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2537,11 +2543,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>22</v>
@@ -2553,14 +2559,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2570,49 +2576,82 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>152</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>153</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>115</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>120</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
         <v>121</v>
       </c>
-      <c t="s" r="Q51" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>1953.0550000000001</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
-        <v>152</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
-        <v>153</v>
-      </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c t="s" r="Q52" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2038.0550000000001</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
         <v>154</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>155</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>156</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2846,10 +2885,15 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -473,7 +473,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 3:43 PM</t>
+    <t>Thursday, 24 July, 2025 3:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -197,6 +197,18 @@
     <t>68.3100</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -230,9 +242,6 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -443,6 +452,12 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>كريم فيرند لافلي الصغير</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
     <t>محلول رينجر</t>
   </si>
   <si>
@@ -452,19 +467,22 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>9:0</t>
+    <t>مخمريه العود الملكي</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>مسك صبايا1</t>
   </si>
   <si>
     <t>معجون سنسوداين 50 مل</t>
   </si>
   <si>
     <t>مناديل FINE</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
   </si>
   <si>
     <t>مناديل بكر فاين</t>
@@ -1543,7 +1561,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1553,14 +1571,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1576,7 +1594,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1593,7 +1611,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1602,14 +1620,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1619,11 +1637,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>22</v>
@@ -1635,14 +1653,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1659,7 +1677,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1675,7 +1693,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1692,7 +1710,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1708,7 +1726,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1725,7 +1743,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1741,7 +1759,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1751,14 +1769,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1774,7 +1792,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1784,14 +1802,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1807,7 +1825,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1817,14 +1835,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>90</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1850,11 +1868,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>22</v>
@@ -1866,14 +1884,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1883,11 +1901,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>22</v>
@@ -1899,14 +1917,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1916,14 +1934,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1932,14 +1950,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1949,14 +1967,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1989,7 +2007,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2005,7 +2023,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2015,11 +2033,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2031,14 +2049,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2048,14 +2066,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2064,14 +2082,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2088,7 +2106,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2104,24 +2122,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2130,31 +2148,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2163,20 +2181,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2203,24 +2221,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2229,20 +2247,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2250,10 +2268,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2262,28 +2280,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>22</v>
@@ -2295,20 +2313,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2328,31 +2346,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>135</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2374,18 +2392,18 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2394,28 +2412,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>22</v>
@@ -2434,17 +2452,17 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2467,21 +2485,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -2493,28 +2511,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>22</v>
@@ -2526,28 +2544,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>22</v>
@@ -2559,28 +2577,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>56</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>22</v>
@@ -2599,59 +2617,191 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2038.0550000000001</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>155</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>59</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>118</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>119</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>156</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>148</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>118</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>142</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>157</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>63</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>118</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>153</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
         <v>154</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>155</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
-        <v>156</v>
-      </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c t="s" r="Q55" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>158</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>159</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>118</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>123</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>2145.0549999999998</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>160</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>161</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>162</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2890,10 +3040,30 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -491,7 +491,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 3:44 PM</t>
+    <t>Thursday, 24 July, 2025 3:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -245,7 +245,25 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
@@ -422,63 +440,63 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>شامبو جونسون 100 مل</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>كريم فيرند لافلي الصغير</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>محلول رينجر</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>مخمريه العود الملكي</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>مسك صبايا1</t>
+  </si>
+  <si>
     <t>30.0000</t>
   </si>
   <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>شامبو جونسون 100 مل</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>قطن 100 جم</t>
-  </si>
-  <si>
-    <t>26:0</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>كريم فيرند لافلي الصغير</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>محلول رينجر</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>مخمريه العود الملكي</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>مسك صبايا1</t>
-  </si>
-  <si>
     <t>معجون سنسوداين 50 مل</t>
   </si>
   <si>
@@ -491,7 +509,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 3:57 PM</t>
+    <t>Thursday, 24 July, 2025 3:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1693,7 +1711,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1710,7 +1728,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1719,14 +1737,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1736,14 +1754,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1752,14 +1770,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1769,14 +1787,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>69</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1785,14 +1803,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1802,14 +1820,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1818,14 +1836,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1835,14 +1853,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1851,14 +1869,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1868,14 +1886,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1884,7 +1902,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1901,11 +1919,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>22</v>
@@ -1917,14 +1935,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1934,11 +1952,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>22</v>
@@ -1950,14 +1968,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1967,14 +1985,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1983,14 +2001,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2000,14 +2018,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2016,7 +2034,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2033,14 +2051,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2049,14 +2067,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2066,11 +2084,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2082,14 +2100,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2099,14 +2117,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2115,14 +2133,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2132,14 +2150,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2148,31 +2166,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2181,31 +2199,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2214,28 +2232,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
@@ -2247,31 +2265,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2280,31 +2298,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2313,28 +2331,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>22</v>
@@ -2346,28 +2364,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>22</v>
@@ -2379,31 +2397,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>138</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2412,7 +2430,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2425,18 +2443,18 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2445,28 +2463,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>22</v>
@@ -2478,28 +2496,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -2511,28 +2529,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>22</v>
@@ -2544,28 +2562,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>22</v>
@@ -2577,20 +2595,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>148</v>
+        <v>63</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2598,7 +2616,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>22</v>
@@ -2610,28 +2628,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>22</v>
@@ -2643,28 +2661,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>22</v>
@@ -2676,28 +2694,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>22</v>
@@ -2709,28 +2727,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>22</v>
@@ -2742,66 +2760,99 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>164</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>165</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
         <v>124</v>
       </c>
-      <c t="s" r="Q56" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>2145.0549999999998</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
-        <v>160</v>
-      </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
-        <v>161</v>
-      </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
-        <v>162</v>
-      </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>129</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>2233.0549999999998</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>166</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>167</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>168</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3060,10 +3111,15 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -293,6 +293,15 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>SOOTONIC HAIR LOTION 120 ML</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>169.0000</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -509,7 +518,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 3:59 PM</t>
+    <t>Thursday, 24 July, 2025 4:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1876,7 +1885,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1886,14 +1895,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>96</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1909,7 +1918,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1919,14 +1928,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>99</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1952,11 +1961,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>22</v>
@@ -1968,14 +1977,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1985,11 +1994,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>22</v>
@@ -2001,14 +2010,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2018,14 +2027,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2034,14 +2043,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2051,14 +2060,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2091,7 +2100,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2107,7 +2116,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2117,11 +2126,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2133,14 +2142,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2150,14 +2159,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2166,14 +2175,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2190,7 +2199,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2206,24 +2215,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2232,31 +2241,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2265,20 +2274,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2305,24 +2314,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2331,20 +2340,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2352,10 +2361,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2364,28 +2373,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>22</v>
@@ -2397,20 +2406,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2430,31 +2439,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>143</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2463,7 +2472,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2476,18 +2485,18 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2496,28 +2505,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -2536,17 +2545,17 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2575,15 +2584,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>22</v>
@@ -2595,28 +2604,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>22</v>
@@ -2628,20 +2637,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2649,7 +2658,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>22</v>
@@ -2661,28 +2670,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>56</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>22</v>
@@ -2701,21 +2710,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>22</v>
@@ -2727,28 +2736,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>22</v>
@@ -2760,28 +2769,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>22</v>
@@ -2793,66 +2802,99 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>165</v>
+        <v>63</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>2233.0549999999998</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
-        <v>166</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
         <v>167</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
         <v>168</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>127</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>132</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>2402.0549999999998</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>169</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>170</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>171</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3116,10 +3158,15 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -518,7 +518,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 4:08 PM</t>
+    <t>Thursday, 24 July, 2025 4:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -152,6 +152,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>DIOSMIN PLUS 500 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>73.2600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -176,13 +188,13 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>4:6</t>
+    <t>4:5</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>3.8400</t>
+    <t>7.6800</t>
   </si>
   <si>
     <t>FUTACOXIB 90 MG 30 F.C.TABS.</t>
@@ -218,9 +230,6 @@
     <t>35.6400</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
   </si>
   <si>
@@ -230,6 +239,18 @@
     <t>190.0000</t>
   </si>
   <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
     <t>INFINITY CARE 50+ SPF LOTION 60 ML</t>
   </si>
   <si>
@@ -248,7 +269,13 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>1:1</t>
+    <t>LIPANTHYL 300MG 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
   </si>
   <si>
     <t>MAALOX 20 ORAL SACHET SUSP.</t>
@@ -476,6 +503,12 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>كريم فاتيكا 65 مل</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>كريم فيرند لافلي الصغير</t>
   </si>
   <si>
@@ -503,9 +536,6 @@
     <t>مسك صبايا1</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>معجون سنسوداين 50 مل</t>
   </si>
   <si>
@@ -518,7 +548,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 4:46 PM</t>
+    <t>Thursday, 24 July, 2025 5:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1456,7 +1486,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1466,14 +1496,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>50</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1489,7 +1519,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1499,14 +1529,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1515,14 +1545,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1539,7 +1569,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1572,7 +1602,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1605,7 +1635,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1621,7 +1651,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1631,14 +1661,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>69</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1654,7 +1684,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1671,7 +1701,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1687,7 +1717,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1720,7 +1750,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1730,14 +1760,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1753,7 +1783,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1763,14 +1793,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>84</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1779,7 +1809,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1796,14 +1826,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1812,14 +1842,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1829,14 +1859,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>69</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1845,14 +1875,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1862,14 +1892,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1885,7 +1915,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1918,7 +1948,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1928,14 +1958,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1951,7 +1981,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1961,14 +1991,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1984,7 +2014,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1994,11 +2024,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>22</v>
@@ -2010,14 +2040,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2027,14 +2057,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2043,7 +2073,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2060,14 +2090,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2076,14 +2106,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2093,11 +2123,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>22</v>
@@ -2116,7 +2146,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2126,14 +2156,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2142,14 +2172,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2159,14 +2189,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2175,14 +2205,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2215,7 +2245,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2254,18 +2284,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2274,28 +2304,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>22</v>
@@ -2307,31 +2337,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2340,28 +2370,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>38</v>
@@ -2373,28 +2403,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>22</v>
@@ -2413,21 +2443,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>22</v>
@@ -2439,31 +2469,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2472,31 +2502,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>146</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2505,28 +2535,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -2538,28 +2568,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>22</v>
@@ -2571,31 +2601,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2604,28 +2634,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>22</v>
@@ -2637,28 +2667,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>22</v>
@@ -2670,28 +2700,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>22</v>
@@ -2703,28 +2733,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>22</v>
@@ -2736,28 +2766,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>22</v>
@@ -2769,28 +2799,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>22</v>
@@ -2802,28 +2832,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>22</v>
@@ -2835,66 +2865,198 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>2402.0549999999998</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
-        <v>169</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
-        <v>170</v>
-      </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
-        <v>171</v>
-      </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>174</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>63</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>136</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>137</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>175</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>167</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>136</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>159</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>176</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>67</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>136</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>172</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>177</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>178</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>136</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>141</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>2656.9349999999999</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>179</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>180</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>181</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3163,10 +3325,30 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -548,7 +548,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 5:47 PM</t>
+    <t>Thursday, 24 July, 2025 5:48 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -320,6 +320,21 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>SOOTONIC HAIR LOTION 120 ML</t>
   </si>
   <si>
@@ -350,6 +365,9 @@
     <t>TIMOGEN 10MG/5ML SYRUP 120ML</t>
   </si>
   <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
     <t>TRI-B I.M. 3 DOUBLE AMP.</t>
   </si>
   <si>
@@ -419,9 +437,6 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -548,7 +563,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 5:48 PM</t>
+    <t>Thursday, 24 July, 2025 5:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2014,24 +2029,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2040,14 +2055,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2057,14 +2072,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>108</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2073,14 +2088,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2090,14 +2105,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2106,7 +2121,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2123,11 +2138,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>22</v>
@@ -2139,14 +2154,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2156,11 +2171,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>22</v>
@@ -2172,14 +2187,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2189,14 +2204,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2212,7 +2227,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2222,11 +2237,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>22</v>
@@ -2238,14 +2253,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2255,14 +2270,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2278,7 +2293,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2288,14 +2303,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2304,14 +2319,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2328,7 +2343,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2344,7 +2359,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2354,11 +2369,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2370,31 +2385,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2403,31 +2418,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2436,31 +2451,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2469,31 +2484,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2502,28 +2517,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>22</v>
@@ -2535,31 +2550,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2568,28 +2583,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>22</v>
@@ -2601,31 +2616,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>155</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2634,28 +2649,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>22</v>
@@ -2667,31 +2682,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>160</v>
-      </c>
-      <c t="s" r="Q52" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2707,21 +2722,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>22</v>
@@ -2733,24 +2748,24 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -2779,15 +2794,15 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>22</v>
@@ -2799,28 +2814,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>22</v>
@@ -2832,28 +2847,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>22</v>
@@ -2865,28 +2880,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>60</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>22</v>
@@ -2898,28 +2913,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>63</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>22</v>
@@ -2931,28 +2946,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>22</v>
@@ -2964,28 +2979,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -2997,66 +3012,132 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>2656.9349999999999</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>179</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>180</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>181</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>67</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>105</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>177</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>182</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>183</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>105</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>146</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>2706.9349999999999</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>184</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>185</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>186</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3345,10 +3426,20 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>CARVID 6.25MG 30TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>CEFORAN 1 GM VIAL</t>
   </si>
   <si>
@@ -122,6 +134,15 @@
     <t>20.7900</t>
   </si>
   <si>
+    <t>CYNCHOLINE 20CAPS.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -326,9 +347,6 @@
     <t>3:2</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -470,9 +488,6 @@
     <t>85:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
@@ -563,7 +578,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 5:50 PM</t>
+    <t>Thursday, 24 July, 2025 5:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1303,13 +1318,13 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1320,7 +1335,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1353,7 +1368,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1386,7 +1401,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1419,7 +1434,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1468,7 +1483,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1478,11 +1493,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>22</v>
@@ -1494,14 +1509,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1511,14 +1526,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1534,7 +1549,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1544,14 +1559,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1560,14 +1575,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1577,14 +1592,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>57</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1617,7 +1632,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1633,7 +1648,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1643,14 +1658,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1659,14 +1674,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1676,14 +1691,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1692,14 +1707,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1716,7 +1731,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1732,7 +1747,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1742,11 +1757,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>22</v>
@@ -1758,14 +1773,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1782,7 +1797,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1798,7 +1813,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1831,7 +1846,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1841,14 +1856,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1857,14 +1872,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1874,11 +1889,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>22</v>
@@ -1890,14 +1905,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1914,7 +1929,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1923,14 +1938,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1940,11 +1955,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>22</v>
@@ -1956,14 +1971,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1980,7 +1995,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1989,14 +2004,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2010,10 +2025,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2022,31 +2037,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2055,14 +2070,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2076,10 +2091,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2088,31 +2103,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2128,7 +2143,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2161,7 +2176,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2171,14 +2186,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2187,14 +2202,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2204,11 +2219,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>22</v>
@@ -2220,14 +2235,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2237,11 +2252,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>22</v>
@@ -2253,14 +2268,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2270,14 +2285,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2293,7 +2308,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2303,11 +2318,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
@@ -2319,14 +2334,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2336,14 +2351,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2359,7 +2374,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2369,14 +2384,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2385,14 +2400,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2409,7 +2424,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2425,7 +2440,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2435,11 +2450,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2451,31 +2466,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2484,31 +2499,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2517,31 +2532,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2550,31 +2565,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2583,28 +2598,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>22</v>
@@ -2623,24 +2638,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2649,28 +2664,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>22</v>
@@ -2682,31 +2697,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>160</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2715,28 +2730,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>22</v>
@@ -2748,31 +2763,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>165</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2788,21 +2803,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>70</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>22</v>
@@ -2814,24 +2829,24 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -2860,15 +2875,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>22</v>
@@ -2880,28 +2895,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>22</v>
@@ -2913,28 +2928,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>22</v>
@@ -2946,28 +2961,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>22</v>
@@ -2979,28 +2994,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3012,28 +3027,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>22</v>
@@ -3045,28 +3060,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>22</v>
@@ -3078,66 +3093,132 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>2706.9349999999999</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
-        <v>184</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
-        <v>185</v>
-      </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
         <v>186</v>
       </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>74</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>26</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>182</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>187</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>188</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>26</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>152</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>2761.9349999999999</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>189</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>190</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>191</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3436,10 +3517,20 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -578,7 +578,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 5:53 PM</t>
+    <t>Thursday, 24 July, 2025 5:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -74,12 +74,36 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AVAZIR 0.3% EYE OINT. 5 GM</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -212,9 +236,6 @@
     <t>4:5</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>7.6800</t>
   </si>
   <si>
@@ -233,9 +254,6 @@
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>22.00</t>
   </si>
   <si>
@@ -506,7 +524,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>20:0</t>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>21:0</t>
   </si>
   <si>
     <t>شامبو جونسون 100 مل</t>
@@ -548,9 +569,6 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -578,7 +596,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 5:58 PM</t>
+    <t>Thursday, 24 July, 2025 6:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1302,7 +1320,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1318,13 +1336,13 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1335,7 +1353,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1344,14 +1362,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1368,7 +1386,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1384,13 +1402,13 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1401,7 +1419,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1434,7 +1452,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1450,7 +1468,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1460,14 +1478,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1476,14 +1494,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1493,14 +1511,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1509,14 +1527,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1526,11 +1544,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1542,14 +1560,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1559,14 +1577,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1575,14 +1593,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1592,14 +1610,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1608,14 +1626,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1632,7 +1650,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1648,7 +1666,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1665,7 +1683,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1674,14 +1692,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1691,14 +1709,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1707,14 +1725,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1731,7 +1749,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1757,14 +1775,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1773,14 +1791,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1797,7 +1815,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1813,7 +1831,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1830,7 +1848,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1846,7 +1864,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1856,14 +1874,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1872,14 +1890,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1889,14 +1907,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1905,14 +1923,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1929,7 +1947,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1945,7 +1963,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1962,7 +1980,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1978,7 +1996,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1988,14 +2006,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2004,14 +2022,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2021,14 +2039,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2037,14 +2055,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2054,14 +2072,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>106</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>57</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2077,7 +2095,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2087,14 +2105,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2110,24 +2128,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2136,14 +2154,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2157,10 +2175,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2169,31 +2187,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2209,7 +2227,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2226,7 +2244,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2242,7 +2260,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2252,14 +2270,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2268,14 +2286,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2285,14 +2303,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2301,14 +2319,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2318,14 +2336,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2334,14 +2352,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2351,14 +2369,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2374,7 +2392,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2384,14 +2402,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2400,14 +2418,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2417,14 +2435,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2440,7 +2458,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2450,14 +2468,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2466,14 +2484,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2490,7 +2508,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2506,7 +2524,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2516,11 +2534,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2532,31 +2550,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2565,31 +2583,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2598,31 +2616,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2631,31 +2649,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2671,13 +2689,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2685,10 +2703,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2697,31 +2715,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2730,31 +2748,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2763,31 +2781,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>165</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2796,31 +2814,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2829,31 +2847,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2862,31 +2880,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2895,31 +2913,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2928,31 +2946,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2961,31 +2979,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2994,31 +3012,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3027,31 +3045,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>27</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3060,31 +3078,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>70</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3093,31 +3111,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3126,31 +3144,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3159,66 +3177,132 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>2761.9349999999999</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>192</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>26</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>34</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>188</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
         <v>189</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
-        <v>190</v>
-      </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
-        <v>191</v>
-      </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c t="s" r="Q67" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>193</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>194</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>34</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>158</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>2800.415</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>195</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>196</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>197</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3527,10 +3611,20 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -596,7 +596,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 6:50 PM</t>
+    <t>Thursday, 24 July, 2025 7:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -254,6 +254,9 @@
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>22.00</t>
   </si>
   <si>
@@ -371,6 +374,12 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
     <t>SOOTONIC HAIR LOTION 120 ML</t>
   </si>
   <si>
@@ -596,7 +605,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 7:11 PM</t>
+    <t>Thursday, 24 July, 2025 7:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1831,7 +1840,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1841,11 +1850,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>29</v>
@@ -1857,7 +1866,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1874,11 +1883,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>65</v>
@@ -1890,7 +1899,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1907,11 +1916,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>29</v>
@@ -1923,14 +1932,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1940,11 +1949,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1956,7 +1965,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1973,11 +1982,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>29</v>
@@ -1989,7 +1998,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2006,14 +2015,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2022,7 +2031,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2039,11 +2048,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>29</v>
@@ -2055,14 +2064,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2072,14 +2081,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2088,7 +2097,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2105,11 +2114,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>29</v>
@@ -2121,7 +2130,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2138,11 +2147,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>65</v>
@@ -2154,14 +2163,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2171,7 +2180,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2187,14 +2196,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2204,11 +2213,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2220,14 +2229,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2237,14 +2246,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2260,7 +2269,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2270,14 +2279,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>125</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2293,7 +2302,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2303,14 +2312,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>128</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2336,11 +2345,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>29</v>
@@ -2352,14 +2361,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2385,14 +2394,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2402,11 +2411,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>29</v>
@@ -2418,14 +2427,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2435,14 +2444,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2451,14 +2460,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2468,14 +2477,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2508,7 +2517,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2524,7 +2533,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2534,11 +2543,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2550,14 +2559,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2567,14 +2576,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2583,14 +2592,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2607,7 +2616,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2623,24 +2632,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2649,14 +2658,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2666,14 +2675,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2682,14 +2691,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2722,7 +2731,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2732,14 +2741,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2755,7 +2764,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2765,14 +2774,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2781,14 +2790,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2798,11 +2807,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>29</v>
@@ -2814,14 +2823,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2847,14 +2856,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2864,14 +2873,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>172</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2897,14 +2906,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2913,14 +2922,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2930,11 +2939,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>29</v>
@@ -2953,7 +2962,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2963,7 +2972,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>50</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -2986,7 +2995,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2996,11 +3005,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>29</v>
@@ -3012,14 +3021,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3029,11 +3038,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>29</v>
@@ -3045,14 +3054,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3062,11 +3071,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>28</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>29</v>
@@ -3078,14 +3087,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3111,14 +3120,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3128,11 +3137,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>27</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>29</v>
@@ -3151,7 +3160,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3161,11 +3170,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>29</v>
@@ -3177,14 +3186,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3194,11 +3203,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>29</v>
@@ -3210,14 +3219,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3227,11 +3236,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>29</v>
@@ -3243,14 +3252,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3260,49 +3269,82 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>2800.415</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
-        <v>195</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>196</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
         <v>197</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>34</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>161</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>2811.415</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>198</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>199</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>200</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3621,10 +3663,15 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -605,7 +605,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 7:17 PM</t>
+    <t>Thursday, 24 July, 2025 7:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -197,6 +197,12 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>DIFLUSTERO 0.05% EYE EMULSION 5 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
     <t>DIOSMIN PLUS 500 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -242,9 +248,6 @@
     <t>FUTACOXIB 90 MG 30 F.C.TABS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>207.00</t>
   </si>
   <si>
@@ -440,6 +443,15 @@
     <t>56.0000</t>
   </si>
   <si>
+    <t>VIRUSTAT 200MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>61.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -575,6 +587,9 @@
     <t>9:0</t>
   </si>
   <si>
+    <t>لبخه كوالين CREAM</t>
+  </si>
+  <si>
     <t>محلول رينجر</t>
   </si>
   <si>
@@ -605,7 +620,13 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 7:19 PM</t>
+    <t>مناديل مبلله كبيره</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>Thursday, 24 July, 2025 8:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1675,7 +1696,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1685,14 +1706,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1701,14 +1722,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1718,14 +1739,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1734,14 +1755,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1751,14 +1772,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1767,14 +1788,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1784,14 +1805,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1800,14 +1821,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1817,14 +1838,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1833,14 +1854,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1850,14 +1871,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1866,14 +1887,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1883,14 +1904,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1899,14 +1920,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1916,14 +1937,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1932,14 +1953,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1949,14 +1970,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1965,14 +1986,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1982,14 +2003,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1998,14 +2019,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2015,14 +2036,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>91</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2031,14 +2052,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2048,14 +2069,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2064,14 +2085,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2081,14 +2102,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>107</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2097,14 +2118,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2114,14 +2135,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2130,14 +2151,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2147,14 +2168,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2163,14 +2184,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2180,14 +2201,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2196,28 +2217,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2229,31 +2250,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2262,14 +2283,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2279,14 +2300,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2295,14 +2316,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2312,14 +2333,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>128</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2328,14 +2349,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2345,14 +2366,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2361,14 +2382,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2378,11 +2399,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>29</v>
@@ -2401,7 +2422,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2434,7 +2455,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2444,11 +2465,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>29</v>
@@ -2460,14 +2481,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2477,14 +2498,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2493,14 +2514,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2510,14 +2531,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2526,14 +2547,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2543,14 +2564,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2559,14 +2580,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2576,14 +2597,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2592,14 +2613,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2609,14 +2630,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2625,14 +2646,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2642,11 +2663,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2658,31 +2679,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2691,31 +2712,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2724,14 +2745,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2741,14 +2762,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2757,14 +2778,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2774,14 +2795,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2790,14 +2811,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2807,11 +2828,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>29</v>
@@ -2823,14 +2844,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2840,14 +2861,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2856,14 +2877,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2873,11 +2894,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>29</v>
@@ -2889,14 +2910,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2906,14 +2927,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>175</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2929,7 +2950,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2939,11 +2960,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>29</v>
@@ -2955,14 +2976,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2972,14 +2993,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>29</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2988,14 +3009,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3005,11 +3026,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>29</v>
@@ -3021,14 +3042,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3038,11 +3059,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>29</v>
@@ -3054,14 +3075,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3075,7 +3096,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>29</v>
@@ -3094,7 +3115,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3104,11 +3125,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>29</v>
@@ -3120,14 +3141,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3137,11 +3158,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>29</v>
@@ -3153,14 +3174,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3170,11 +3191,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>29</v>
@@ -3193,7 +3214,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3203,11 +3224,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>29</v>
@@ -3226,7 +3247,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3236,11 +3257,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>29</v>
@@ -3259,7 +3280,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3269,11 +3290,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>29</v>
@@ -3285,14 +3306,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>197</v>
+        <v>63</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3306,45 +3327,177 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>2811.415</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>198</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>199</v>
       </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>191</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>34</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>183</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
         <v>200</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>26</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>34</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>196</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>201</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>202</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>34</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>165</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>203</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>204</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>34</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>161</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>2962.415</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>205</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>206</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>207</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3668,10 +3821,30 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -557,6 +557,15 @@
     <t>50.00</t>
   </si>
   <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>34:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
   </si>
   <si>
@@ -572,9 +581,6 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>كريم فاتيكا 65 مل</t>
   </si>
   <si>
@@ -626,7 +632,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 8:10 PM</t>
+    <t>Thursday, 24 July, 2025 8:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3049,7 +3055,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3059,7 +3065,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>50</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3082,7 +3088,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3092,7 +3098,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>50</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3115,7 +3121,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3125,11 +3131,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>29</v>
@@ -3148,7 +3154,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3158,11 +3164,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>29</v>
@@ -3181,7 +3187,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3191,11 +3197,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>29</v>
@@ -3207,14 +3213,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3224,11 +3230,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>29</v>
@@ -3240,14 +3246,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3273,14 +3279,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3290,11 +3296,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>29</v>
@@ -3306,14 +3312,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3323,11 +3329,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>29</v>
@@ -3339,14 +3345,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>191</v>
+        <v>63</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3356,11 +3362,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>29</v>
@@ -3372,14 +3378,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>193</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3389,11 +3395,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>29</v>
@@ -3405,14 +3411,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>202</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3422,11 +3428,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>29</v>
@@ -3455,49 +3461,82 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>2962.415</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
         <v>205</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
         <v>206</v>
       </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>34</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>161</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>2982.415</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
         <v>207</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>208</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>209</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3841,10 +3880,15 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -632,7 +632,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 8:15 PM</t>
+    <t>Thursday, 24 July, 2025 8:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -434,6 +434,15 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>VECOVARTEC PLUS 20/12.5MG 21 F.C. TAB.</t>
   </si>
   <si>
@@ -632,7 +641,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 8:22 PM</t>
+    <t>Thursday, 24 July, 2025 8:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2560,7 +2569,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2643,7 +2652,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2659,7 +2668,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2669,11 +2678,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2685,14 +2694,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2702,14 +2711,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>57</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2718,14 +2727,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2742,7 +2751,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2758,24 +2767,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2784,14 +2793,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2801,14 +2810,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2817,14 +2826,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2857,7 +2866,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>171</v>
+        <v>53</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2867,14 +2876,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2890,7 +2899,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2900,14 +2909,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2916,14 +2925,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2933,11 +2942,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>29</v>
@@ -2949,14 +2958,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2982,14 +2991,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2999,14 +3008,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>179</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3032,14 +3041,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>29</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3048,14 +3057,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>63</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3065,11 +3074,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>29</v>
@@ -3088,7 +3097,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3098,7 +3107,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>50</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3121,7 +3130,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3131,11 +3140,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>29</v>
@@ -3147,14 +3156,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3164,11 +3173,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>29</v>
@@ -3180,14 +3189,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3197,11 +3206,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>29</v>
@@ -3213,14 +3222,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3230,11 +3239,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>29</v>
@@ -3246,14 +3255,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3263,11 +3272,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>29</v>
@@ -3279,14 +3288,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3312,14 +3321,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>53</v>
+        <v>196</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3329,11 +3338,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>27</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>29</v>
@@ -3352,7 +3361,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3362,11 +3371,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>29</v>
@@ -3378,14 +3387,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>193</v>
+        <v>63</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3395,11 +3404,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>29</v>
@@ -3411,14 +3420,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3428,11 +3437,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>29</v>
@@ -3444,14 +3453,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>204</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3461,11 +3470,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>29</v>
@@ -3477,14 +3486,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3494,49 +3503,82 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>2982.415</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
-        <v>207</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
         <v>208</v>
       </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
         <v>209</v>
       </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>34</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>164</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>3013.415</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>210</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>211</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>212</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3885,10 +3927,15 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -641,7 +641,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 8:23 PM</t>
+    <t>Thursday, 24 July, 2025 8:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -641,7 +641,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 8:34 PM</t>
+    <t>Thursday, 24 July, 2025 8:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -74,16 +74,34 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
-    <t>1:3</t>
+    <t>0:3</t>
   </si>
   <si>
     <t>78.00</t>
   </si>
   <si>
-    <t>12.4800</t>
+    <t>90.4800</t>
+  </si>
+  <si>
+    <t>1:1</t>
   </si>
   <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
@@ -167,6 +185,15 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -212,7 +239,13 @@
     <t>73.2600</t>
   </si>
   <si>
-    <t>0:2</t>
+    <t>DIVIDO 75MG 8*4 DUAL RELEASE CAPS.</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>14.5200</t>
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
@@ -287,9 +320,6 @@
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>66.00</t>
   </si>
   <si>
@@ -335,9 +365,6 @@
     <t>18.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
@@ -347,6 +374,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
   </si>
   <si>
@@ -377,6 +413,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>RX MASSAGE GEL 50 GM</t>
+  </si>
+  <si>
+    <t>79.90</t>
+  </si>
+  <si>
+    <t>79.9000</t>
+  </si>
+  <si>
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
@@ -422,9 +467,6 @@
     <t>0:-1</t>
   </si>
   <si>
-    <t>44.00</t>
-  </si>
-  <si>
     <t>44.0000</t>
   </si>
   <si>
@@ -446,9 +488,6 @@
     <t>VECOVARTEC PLUS 20/12.5MG 21 F.C. TAB.</t>
   </si>
   <si>
-    <t>56.00</t>
-  </si>
-  <si>
     <t>56.0000</t>
   </si>
   <si>
@@ -554,10 +593,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>21:0</t>
+    <t>32:0</t>
   </si>
   <si>
     <t>شامبو جونسون 100 مل</t>
@@ -641,7 +677,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 8:35 PM</t>
+    <t>Thursday, 24 July, 2025 8:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1365,7 +1401,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1374,14 +1410,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1391,14 +1427,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1407,14 +1443,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1424,14 +1460,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1440,31 +1476,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1473,31 +1509,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1506,14 +1542,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1523,14 +1559,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>44</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1539,14 +1575,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1556,14 +1592,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1572,14 +1608,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1589,11 +1625,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1605,14 +1641,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1622,14 +1658,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1638,14 +1674,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1655,14 +1691,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1671,14 +1707,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1688,14 +1724,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1704,14 +1740,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1721,14 +1757,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1737,14 +1773,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1754,14 +1790,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>67</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1770,14 +1806,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1787,14 +1823,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1803,14 +1839,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1820,14 +1856,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1836,14 +1872,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1853,14 +1889,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1869,14 +1905,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1886,11 +1922,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1902,14 +1938,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1919,14 +1955,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1935,14 +1971,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1952,14 +1988,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1968,14 +2004,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1985,14 +2021,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2001,14 +2037,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2018,14 +2054,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2034,14 +2070,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2051,14 +2087,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2067,14 +2103,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2084,14 +2120,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>92</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2100,14 +2136,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2117,14 +2153,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2133,14 +2169,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2157,7 +2193,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>108</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2166,14 +2202,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2183,14 +2219,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2199,14 +2235,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2216,14 +2252,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>67</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2232,14 +2268,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2249,14 +2285,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2272,24 +2308,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2298,14 +2334,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2315,14 +2351,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2338,7 +2374,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2355,7 +2391,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2371,7 +2407,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2381,14 +2417,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2404,24 +2440,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2430,14 +2466,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2447,14 +2483,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2463,14 +2499,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2480,14 +2516,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2496,14 +2532,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2513,14 +2549,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2529,14 +2565,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2546,14 +2582,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>53</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2562,14 +2598,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2579,14 +2615,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2595,14 +2631,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2612,14 +2648,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2628,14 +2664,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2645,14 +2681,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2668,7 +2704,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2678,14 +2714,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2701,7 +2737,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2711,14 +2747,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2734,7 +2770,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2744,14 +2780,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2760,14 +2796,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2777,14 +2813,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2793,31 +2829,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2826,31 +2862,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2859,31 +2895,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2892,31 +2928,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2925,31 +2961,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2958,31 +2994,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2998,24 +3034,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3024,31 +3060,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>182</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3057,31 +3093,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>63</v>
+        <v>187</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>56</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3090,31 +3126,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3123,31 +3159,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3156,31 +3192,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3196,24 +3232,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q65" s="12">
         <v>194</v>
-      </c>
-      <c t="s" r="Q65" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3229,24 +3265,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>72</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>50</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3262,24 +3298,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3288,31 +3324,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3321,31 +3357,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>28</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3354,31 +3390,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3387,31 +3423,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3420,31 +3456,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3453,31 +3489,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>201</v>
+        <v>33</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3486,31 +3522,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3519,66 +3555,231 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>209</v>
+        <v>62</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>3013.415</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>210</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
-        <v>211</v>
-      </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
-        <v>212</v>
-      </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>215</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>72</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>40</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>177</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>216</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>208</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>40</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>201</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>217</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>32</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>40</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>213</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>218</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>219</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>40</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>181</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>220</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>221</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>40</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>177</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>3378.2550000000001</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>222</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>223</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>224</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3932,10 +4133,35 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -374,6 +374,9 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
@@ -446,6 +449,9 @@
     <t>0:-2</t>
   </si>
   <si>
+    <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
+  </si>
+  <si>
     <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
   </si>
   <si>
@@ -677,7 +683,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 8:38 PM</t>
+    <t>Thursday, 24 July, 2025 8:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2351,14 +2357,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2367,7 +2373,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2384,14 +2390,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2400,14 +2406,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2417,14 +2423,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2433,28 +2439,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2466,31 +2472,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2499,14 +2505,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2516,14 +2522,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2532,14 +2538,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2549,14 +2555,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2565,14 +2571,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2582,14 +2588,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>144</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2598,14 +2604,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2615,14 +2621,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2631,14 +2637,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2648,11 +2654,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>35</v>
@@ -2664,14 +2670,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2681,11 +2687,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>35</v>
@@ -2704,7 +2710,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2714,11 +2720,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>35</v>
@@ -2730,14 +2736,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2747,14 +2753,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2763,14 +2769,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2780,11 +2786,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>35</v>
@@ -2796,14 +2802,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2813,14 +2819,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2829,14 +2835,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2846,11 +2852,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>35</v>
@@ -2862,7 +2868,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2879,14 +2885,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2895,14 +2901,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2912,14 +2918,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2928,14 +2934,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2945,14 +2951,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2961,14 +2967,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2978,11 +2984,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>66</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2994,31 +3000,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3027,31 +3033,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3060,14 +3066,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3077,14 +3083,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3093,14 +3099,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3110,14 +3116,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3126,14 +3132,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3143,11 +3149,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>35</v>
@@ -3159,14 +3165,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3176,14 +3182,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>56</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3192,14 +3198,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3209,11 +3215,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>35</v>
@@ -3232,7 +3238,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3242,14 +3248,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>194</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3258,14 +3264,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3275,11 +3281,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>35</v>
@@ -3291,14 +3297,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>72</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3308,14 +3314,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>35</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3324,14 +3330,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3341,11 +3347,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>35</v>
@@ -3357,14 +3363,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3378,7 +3384,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>35</v>
@@ -3390,14 +3396,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3407,11 +3413,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>35</v>
@@ -3423,14 +3429,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3444,7 +3450,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>35</v>
@@ -3456,14 +3462,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3473,11 +3479,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>35</v>
@@ -3489,14 +3495,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3506,11 +3512,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>34</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>35</v>
@@ -3529,7 +3535,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>208</v>
+        <v>35</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3539,11 +3545,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>33</v>
+        <v>183</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>34</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>35</v>
@@ -3562,7 +3568,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3572,11 +3578,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>35</v>
@@ -3588,14 +3594,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3605,11 +3611,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>206</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>35</v>
@@ -3621,14 +3627,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>208</v>
+        <v>62</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3638,11 +3644,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>35</v>
@@ -3661,7 +3667,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3671,11 +3677,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>35</v>
@@ -3694,7 +3700,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3704,11 +3710,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>35</v>
@@ -3720,14 +3726,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>221</v>
+        <v>32</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3737,49 +3743,115 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>35</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>3378.2550000000001</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>220</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>221</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>40</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>183</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
         <v>222</v>
       </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
         <v>223</v>
       </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>40</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>179</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>3439.2550000000001</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
         <v>224</v>
       </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>225</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>226</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4158,10 +4230,20 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -260,6 +260,12 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -272,10 +278,13 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>4:5</t>
-  </si>
-  <si>
-    <t>7.6800</t>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>15.6000</t>
+  </si>
+  <si>
+    <t>0:4</t>
   </si>
   <si>
     <t>FUTACOXIB 90 MG 30 F.C.TABS.</t>
@@ -326,6 +335,15 @@
     <t>21.7800</t>
   </si>
   <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t>INFINITY CARE 50+ SPF LOTION 60 ML</t>
   </si>
   <si>
@@ -362,7 +380,13 @@
     <t>120.00</t>
   </si>
   <si>
-    <t>18.0000</t>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
   </si>
   <si>
     <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
@@ -401,9 +425,6 @@
     <t>3:1</t>
   </si>
   <si>
-    <t>92.00</t>
-  </si>
-  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -485,12 +506,6 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>VECOVARTEC PLUS 20/12.5MG 21 F.C. TAB.</t>
   </si>
   <si>
@@ -518,7 +533,7 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>2:3</t>
+    <t>33.6600</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -683,7 +698,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 8:52 PM</t>
+    <t>Thursday, 24 July, 2025 9:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1961,14 +1976,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1977,14 +1992,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1994,14 +2009,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2010,14 +2025,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2027,14 +2042,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>91</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2050,7 +2065,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2060,14 +2075,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2076,14 +2091,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2100,7 +2115,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2116,7 +2131,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2133,7 +2148,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2149,7 +2164,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2166,7 +2181,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2182,7 +2197,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2199,7 +2214,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2215,7 +2230,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2232,7 +2247,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2248,7 +2263,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2281,7 +2296,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2291,14 +2306,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2307,14 +2322,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2324,11 +2339,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>35</v>
@@ -2340,14 +2355,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2357,14 +2372,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2373,7 +2388,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2390,14 +2405,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2406,14 +2421,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2423,14 +2438,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2439,14 +2454,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2456,14 +2471,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2472,28 +2487,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2505,14 +2520,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2522,14 +2537,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2538,14 +2553,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2555,14 +2570,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2571,31 +2586,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2604,14 +2619,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2621,14 +2636,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>145</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2637,14 +2652,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2654,14 +2669,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2710,7 +2725,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2720,14 +2735,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>35</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2736,7 +2751,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2753,11 +2768,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>35</v>
@@ -2769,14 +2784,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2786,11 +2801,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>35</v>
@@ -2802,14 +2817,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2819,14 +2834,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2835,14 +2850,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2852,11 +2867,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>35</v>
@@ -2868,14 +2883,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2885,7 +2900,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -2908,7 +2923,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2918,14 +2933,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2934,14 +2949,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2951,14 +2966,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2967,14 +2982,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2984,14 +2999,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>67</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3000,14 +3015,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3017,11 +3032,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>35</v>
@@ -3033,14 +3048,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3050,11 +3065,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3066,31 +3081,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>66</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3099,28 +3114,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>35</v>
@@ -3132,31 +3147,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3165,14 +3180,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3182,11 +3197,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>62</v>
@@ -3198,14 +3213,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3215,11 +3230,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>35</v>
@@ -3231,14 +3246,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3248,11 +3263,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>35</v>
@@ -3264,14 +3279,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3281,14 +3296,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3297,14 +3312,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3314,14 +3329,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>196</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3330,14 +3345,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3347,11 +3362,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>35</v>
@@ -3370,7 +3385,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3380,11 +3395,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>56</v>
+        <v>191</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>35</v>
@@ -3396,14 +3411,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3413,14 +3428,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>35</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3429,14 +3444,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>72</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3446,11 +3461,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>56</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>35</v>
@@ -3462,14 +3477,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3479,11 +3494,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>179</v>
+        <v>56</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>35</v>
@@ -3495,14 +3510,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3512,11 +3527,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>56</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>35</v>
@@ -3528,14 +3543,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3545,11 +3560,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>183</v>
+        <v>56</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>35</v>
@@ -3568,7 +3583,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3578,11 +3593,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>34</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>35</v>
@@ -3594,14 +3609,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3611,11 +3626,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>34</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>35</v>
@@ -3627,14 +3642,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3644,11 +3659,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>35</v>
@@ -3667,7 +3682,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3677,11 +3692,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>179</v>
+        <v>33</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>208</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>35</v>
@@ -3700,7 +3715,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3710,11 +3725,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>203</v>
+        <v>33</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>204</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>35</v>
@@ -3733,7 +3748,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3743,11 +3758,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>35</v>
@@ -3759,14 +3774,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>221</v>
+        <v>72</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3776,11 +3791,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>35</v>
@@ -3792,14 +3807,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3809,49 +3824,148 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>35</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>3439.2550000000001</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>224</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>32</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>40</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>220</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>225</v>
       </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
         <v>226</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>40</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>188</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>227</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>228</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>40</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>184</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>3605.0050000000001</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>229</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>230</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>231</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4240,10 +4354,25 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -77,168 +77,174 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
-    <t>1:2</t>
+    <t>1:1</t>
   </si>
   <si>
     <t>87.00</t>
   </si>
   <si>
-    <t>57.4200</t>
+    <t>86.1300</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>90.4800</t>
+  </si>
+  <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>AVAZIR 0.3% EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>CARVID 6.25MG 30TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>CEFORAN 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>164.0000</t>
+  </si>
+  <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>CYNCHOLINE 20CAPS.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DIFLUSTERO 0.05% EYE EMULSION 5 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>DIOSMIN PLUS 500 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>73.2600</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>90.4800</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>AVAZIR 0.3% EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>CARVID 6.25MG 30TAB</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>CEFORAN 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>164.0000</t>
-  </si>
-  <si>
-    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>CYNCHOLINE 20CAPS.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>DEXAZONE 0.5MG 60 TAB</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DIFLUSTERO 0.05% EYE EMULSION 5 ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>DIOSMIN PLUS 500 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>73.2600</t>
-  </si>
-  <si>
     <t>DIVIDO 75MG 8*4 DUAL RELEASE CAPS.</t>
   </si>
   <si>
@@ -389,15 +395,18 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
     <t>39.00</t>
   </si>
   <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
   </si>
   <si>
@@ -497,6 +506,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>TRIMED FLU 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
@@ -548,6 +566,15 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
@@ -614,7 +641,19 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>32:0</t>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>33:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
   </si>
   <si>
     <t>شامبو جونسون 100 مل</t>
@@ -689,16 +728,13 @@
     <t>مناديل بكر فاين</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
     <t>12:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 9:03 PM</t>
+    <t>Thursday, 24 July, 2025 9:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1438,7 +1474,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1448,14 +1484,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1464,14 +1500,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1481,14 +1517,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1497,14 +1533,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1514,14 +1550,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1530,31 +1566,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1563,14 +1599,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1580,14 +1616,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1596,14 +1632,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1613,14 +1649,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1629,14 +1665,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1646,14 +1682,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1662,14 +1698,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1679,11 +1715,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1695,14 +1731,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1712,14 +1748,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1728,14 +1764,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1745,14 +1781,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1761,14 +1797,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1778,14 +1814,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1794,14 +1830,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1811,14 +1847,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1827,14 +1863,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1844,14 +1880,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1860,14 +1896,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1877,14 +1913,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1893,14 +1929,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1910,14 +1946,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1926,14 +1962,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1943,11 +1979,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1959,14 +1995,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1976,7 +2012,7 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -1999,7 +2035,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2009,14 +2045,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2025,14 +2061,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2042,14 +2078,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>91</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2058,14 +2094,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2075,14 +2111,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2091,14 +2127,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2108,14 +2144,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2124,14 +2160,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2141,14 +2177,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2157,14 +2193,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2174,14 +2210,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>35</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2190,14 +2226,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2207,14 +2243,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2223,14 +2259,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2240,14 +2276,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2256,14 +2292,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2273,14 +2309,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2289,14 +2325,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2306,14 +2342,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2322,14 +2358,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2339,14 +2375,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2355,14 +2391,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2372,14 +2408,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2388,14 +2424,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2409,10 +2445,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2421,14 +2457,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2438,14 +2474,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2454,31 +2490,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2494,7 +2530,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2508,10 +2544,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2520,14 +2556,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2537,14 +2573,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2553,14 +2589,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2570,11 +2606,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2586,31 +2622,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2619,14 +2655,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2636,14 +2672,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2652,31 +2688,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2685,14 +2721,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2702,14 +2738,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2718,14 +2754,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2735,14 +2771,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>152</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2751,14 +2787,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2768,14 +2804,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2784,14 +2820,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2801,14 +2837,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>35</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2817,14 +2853,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2834,14 +2870,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2850,14 +2886,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2867,14 +2903,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2883,14 +2919,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2900,14 +2936,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2916,14 +2952,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2933,14 +2969,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2949,14 +2985,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2966,14 +3002,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2989,7 +3025,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2999,14 +3035,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3015,14 +3051,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3032,14 +3068,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3055,7 +3091,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3065,14 +3101,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3081,14 +3117,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3098,14 +3134,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3114,14 +3150,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3131,14 +3167,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3147,14 +3183,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3164,11 +3200,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3180,31 +3216,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>53</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>67</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3213,31 +3249,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3246,31 +3282,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>62</v>
+        <v>186</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3279,31 +3315,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>56</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3312,31 +3348,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3345,31 +3381,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>35</v>
+        <v>196</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3385,24 +3421,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3411,31 +3447,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>177</v>
+        <v>57</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>201</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3444,31 +3480,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3477,31 +3513,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3510,31 +3546,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3543,31 +3579,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>35</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3583,24 +3619,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3609,31 +3645,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>56</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3642,31 +3678,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>35</v>
+        <v>218</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>188</v>
+        <v>57</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3675,31 +3711,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>34</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3708,31 +3744,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>34</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3741,31 +3777,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3774,31 +3810,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>72</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>184</v>
+        <v>57</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3807,31 +3843,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>215</v>
+        <v>33</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3840,31 +3876,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>220</v>
+        <v>31</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>221</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3873,31 +3909,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>189</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3906,66 +3942,231 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>228</v>
+        <v>63</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>3605.0050000000001</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
-        <v>229</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
-        <v>230</v>
-      </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
-        <v>231</v>
-      </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>235</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>73</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>38</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>193</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>236</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>228</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>38</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>221</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>237</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>30</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>38</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>233</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>238</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>186</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>38</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>197</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>239</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>240</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>38</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>193</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>3910.4450000000002</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>241</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>242</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>243</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4369,10 +4570,35 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -734,7 +734,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 9:06 PM</t>
+    <t>Thursday, 24 July, 2025 9:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -122,6 +134,18 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>28.5000</t>
+  </si>
+  <si>
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
@@ -134,6 +158,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>CEFIDIME 1 GM VIAL I.M./I.V.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
     <t>CEFORAN 1 GM VIAL</t>
   </si>
   <si>
@@ -170,27 +203,33 @@
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>CYNCHOLINE 20CAPS.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
     <t>2:2</t>
   </si>
   <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>CYNCHOLINE 20CAPS.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
     <t>85.00</t>
   </si>
   <si>
@@ -200,9 +239,6 @@
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -242,9 +278,6 @@
     <t>73.2600</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>DIVIDO 75MG 8*4 DUAL RELEASE CAPS.</t>
   </si>
   <si>
@@ -293,6 +326,24 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FONDACLAV 1GM 12 F.C. TABS</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
     <t>FUTACOXIB 90 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -350,6 +401,12 @@
     <t>92.0000</t>
   </si>
   <si>
+    <t>HYDROCORTISONE SODIUM SUCCINATE 100MG I.V./I.M.VIAL</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>INFINITY CARE 50+ SPF LOTION 60 ML</t>
   </si>
   <si>
@@ -359,292 +416,343 @@
     <t>264.0000</t>
   </si>
   <si>
+    <t>IVYROSPAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
+    <t>1:4</t>
+  </si>
+  <si>
     <t>60.00</t>
   </si>
   <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>LIPANTHYL 300MG 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>MUCO S.R 75MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>REBO SACHET</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>RX MASSAGE GEL 50 GM</t>
+  </si>
+  <si>
+    <t>79.90</t>
+  </si>
+  <si>
+    <t>79.9000</t>
+  </si>
+  <si>
+    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>495.0000</t>
+  </si>
+  <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>SOOTONIC HAIR LOTION 120 ML</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>169.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>-25.7400</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
+    <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>TIMOGEN 10MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>TRI-B I.M. 3 DOUBLE AMP.</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>TRIMED FLU 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>VECOVARTEC PLUS 20/12.5MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>VIRUSTAT 200MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>61.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8517:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بيبرونه ALGO صغيره </t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>82:0</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>رباط ضغط 6سم</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا وسط 90 مل</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
     <t>72.0000</t>
   </si>
   <si>
-    <t>LIPANTHYL 300MG 30 CAPSULES</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>MAALOX 20 ORAL SACHET SUSP.</t>
-  </si>
-  <si>
-    <t>0:9</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>MEGALASE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>OMEZ 20MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>64.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>RX MASSAGE GEL 50 GM</t>
-  </si>
-  <si>
-    <t>79.90</t>
-  </si>
-  <si>
-    <t>79.9000</t>
-  </si>
-  <si>
-    <t>SILDEN 50 MG 4 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t>SOOTONIC HAIR LOTION 120 ML</t>
-  </si>
-  <si>
-    <t>169.00</t>
-  </si>
-  <si>
-    <t>169.0000</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>-25.7400</t>
-  </si>
-  <si>
-    <t>0:-2</t>
-  </si>
-  <si>
-    <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>TIMOGEN 10MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>TRI-B I.M. 3 DOUBLE AMP.</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>TRIMED FLU 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>TUSSKAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>VECOVARTEC PLUS 20/12.5MG 21 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>VIRUSTAT 200MG/5ML SUSP. 120 ML</t>
-  </si>
-  <si>
-    <t>61.00</t>
-  </si>
-  <si>
-    <t>61.0000</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8517:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>XORAXON 1GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t>ZYRTEC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>31:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بيبرونه ALGO صغيره </t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>85:0</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>حنه جلوري سوده 1 كيس</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>رباط ضغط 6سم</t>
-  </si>
-  <si>
-    <t>زيت فاتيكا وسط 90 مل</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>33:0</t>
+    <t>36:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -653,7 +761,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>33.0000</t>
   </si>
   <si>
     <t>شامبو جونسون 100 مل</t>
@@ -686,12 +794,12 @@
     <t>26:0</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>كريم فاتيكا 65 مل</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>كريم فيرند لافلي الصغير</t>
   </si>
   <si>
@@ -707,6 +815,9 @@
     <t>محلول ملح</t>
   </si>
   <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
@@ -734,7 +845,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 9:12 PM</t>
+    <t>Thursday, 24 July, 2025 9:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1474,7 +1585,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1484,14 +1595,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1500,14 +1611,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1524,7 +1635,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1533,14 +1644,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1557,7 +1668,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1566,20 +1677,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1590,7 +1701,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1623,7 +1734,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1639,24 +1750,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1665,14 +1776,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1689,7 +1800,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1722,7 +1833,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1738,7 +1849,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1771,7 +1882,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1781,14 +1892,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1797,14 +1908,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1814,14 +1925,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1830,14 +1941,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1847,11 +1958,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1863,14 +1974,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1880,14 +1991,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1896,14 +2007,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1913,14 +2024,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1929,14 +2040,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1946,14 +2057,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1962,14 +2073,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1979,14 +2090,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1995,14 +2106,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2012,14 +2123,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2028,14 +2139,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2045,14 +2156,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2061,14 +2172,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2078,14 +2189,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2094,14 +2205,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2111,14 +2222,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2127,14 +2238,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2144,11 +2255,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2160,14 +2271,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2184,7 +2295,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2200,7 +2311,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2210,14 +2321,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2226,14 +2337,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2243,14 +2354,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2259,14 +2370,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2276,11 +2387,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2292,14 +2403,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2309,14 +2420,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2325,14 +2436,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2342,14 +2453,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2358,14 +2469,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2375,14 +2486,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2391,14 +2502,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2408,14 +2519,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2424,14 +2535,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2441,14 +2552,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2457,14 +2568,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2474,14 +2585,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2490,31 +2601,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2523,14 +2634,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2540,14 +2651,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2556,14 +2667,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2573,14 +2684,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2589,14 +2700,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2606,14 +2717,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2622,14 +2733,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2639,14 +2750,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>77</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2655,14 +2766,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2672,14 +2783,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2688,31 +2799,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2721,31 +2832,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2754,14 +2865,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2771,14 +2882,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2787,14 +2898,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2804,14 +2915,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2820,14 +2931,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2837,14 +2948,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>155</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2853,14 +2964,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2870,14 +2981,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2886,14 +2997,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2903,14 +3014,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2919,14 +3030,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2936,14 +3047,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2952,31 +3063,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2985,31 +3096,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3018,14 +3129,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3035,14 +3146,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3051,14 +3162,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3068,14 +3179,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>63</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3084,14 +3195,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3101,14 +3212,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3117,14 +3228,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3134,14 +3245,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3150,14 +3261,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3167,14 +3278,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3183,14 +3294,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3200,14 +3311,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3216,14 +3327,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3233,14 +3344,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>77</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3249,14 +3360,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3266,14 +3377,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3282,14 +3393,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>186</v>
+        <v>85</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3299,14 +3410,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3315,14 +3426,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3332,14 +3443,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3348,31 +3459,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>90</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3381,31 +3492,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>37</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3414,31 +3525,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3447,31 +3558,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>115</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3480,31 +3591,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3513,31 +3624,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3546,31 +3657,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3579,31 +3690,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>211</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3612,31 +3723,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3645,31 +3756,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3678,31 +3789,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>57</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3711,31 +3822,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>30</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3744,31 +3855,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>57</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3777,31 +3888,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3810,31 +3921,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>33</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3843,31 +3954,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3876,31 +3987,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>31</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>32</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3909,31 +4020,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>31</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>32</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3942,31 +4053,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>33</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3975,31 +4086,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4008,31 +4119,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>228</v>
+        <v>85</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4041,31 +4152,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>30</v>
+        <v>254</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>233</v>
+        <v>69</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4074,31 +4185,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>186</v>
+        <v>34</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4107,66 +4218,462 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>193</v>
+        <v>69</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>3910.4450000000002</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>241</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
-        <v>242</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>261</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>85</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>46</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>231</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
         <v>243</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c t="s" r="Q91" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>262</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>53</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>46</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>227</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>263</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>264</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>46</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>69</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>265</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>37</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>46</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>231</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>266</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>34</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>46</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>35</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>267</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>220</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>46</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>35</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>269</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>27</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>46</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>270</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>272</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>85</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>46</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>227</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>273</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>264</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>46</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>257</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>274</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>34</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>46</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>270</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>275</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>220</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>46</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>231</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>276</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>277</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>46</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>227</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>5276.0349999999999</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>278</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>279</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>280</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4595,10 +5102,70 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -125,6 +125,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>AVAZIR 0.3% EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -200,6 +209,12 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -236,6 +251,15 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -302,9 +326,6 @@
     <t>DOLPHIN 12.5MG 10 SUPP</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -467,6 +488,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
@@ -485,12 +515,18 @@
     <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
     <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
   </si>
   <si>
+    <t>NOVACTAM 1500MG VIAL I.M/I.V</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>184.0000</t>
+  </si>
+  <si>
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
@@ -572,9 +608,6 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>25.7400</t>
-  </si>
-  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -659,15 +692,12 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8517:0</t>
+    <t>8513:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
     <t>XORAXON 1GM I.M. VIAL</t>
   </si>
   <si>
@@ -746,13 +776,22 @@
     <t>زيت فاتيكا وسط 90 مل</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>36:0</t>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>41:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -845,7 +884,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 9:34 PM</t>
+    <t>Thursday, 24 July, 2025 9:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1684,7 +1723,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1701,7 +1740,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1717,7 +1756,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1727,14 +1766,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1743,31 +1782,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1776,20 +1815,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1800,7 +1839,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1816,7 +1855,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1826,14 +1865,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1842,14 +1881,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1866,7 +1905,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1882,7 +1921,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1892,14 +1931,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1908,14 +1947,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1925,14 +1964,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1941,14 +1980,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1958,11 +1997,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1974,14 +2013,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1991,14 +2030,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2007,14 +2046,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2024,14 +2063,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2040,14 +2079,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2057,14 +2096,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2073,14 +2112,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2090,14 +2129,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2106,14 +2145,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2123,11 +2162,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>37</v>
@@ -2146,7 +2185,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2163,7 +2202,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2179,7 +2218,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2196,7 +2235,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2222,14 +2261,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2238,14 +2277,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2255,14 +2294,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2271,14 +2310,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2288,14 +2327,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2304,14 +2343,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2321,14 +2360,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2337,14 +2376,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2354,11 +2393,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2370,14 +2409,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2387,14 +2426,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2403,14 +2442,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2420,14 +2459,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2436,14 +2475,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2453,14 +2492,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2469,14 +2508,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2486,14 +2525,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2502,14 +2541,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2519,14 +2558,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2535,14 +2574,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2552,14 +2591,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2568,14 +2607,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2585,14 +2624,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2601,14 +2640,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2618,14 +2657,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2634,14 +2673,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2651,14 +2690,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2667,14 +2706,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2684,11 +2723,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>37</v>
@@ -2700,14 +2739,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2717,14 +2756,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>142</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2733,14 +2772,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2750,11 +2789,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>37</v>
@@ -2766,14 +2805,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2783,14 +2822,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2799,14 +2838,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2816,14 +2855,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>37</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2832,31 +2871,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2865,14 +2904,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2886,10 +2925,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2898,14 +2937,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2915,11 +2954,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>37</v>
@@ -2938,7 +2977,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2948,14 +2987,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2964,28 +3003,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2997,14 +3036,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3014,14 +3053,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3030,14 +3069,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3047,14 +3086,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3070,24 +3109,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3096,31 +3135,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3129,14 +3168,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3146,14 +3185,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3162,14 +3201,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3179,14 +3218,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>139</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3195,14 +3234,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3212,14 +3251,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3228,31 +3267,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3261,31 +3300,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3294,14 +3333,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3311,14 +3350,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>190</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3327,14 +3366,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3344,14 +3383,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>37</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3360,14 +3399,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3377,14 +3416,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3400,7 +3439,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3410,11 +3449,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>37</v>
@@ -3426,14 +3465,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3443,14 +3482,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3459,14 +3498,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3476,14 +3515,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>37</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3492,7 +3531,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3509,14 +3548,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3532,7 +3571,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3542,14 +3581,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3558,14 +3597,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3575,11 +3614,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>37</v>
@@ -3591,14 +3630,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3608,11 +3647,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>37</v>
@@ -3631,7 +3670,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3641,7 +3680,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>98</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3664,7 +3703,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3697,7 +3736,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3707,14 +3746,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>67</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3723,14 +3762,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>122</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3740,11 +3779,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>37</v>
@@ -3756,14 +3795,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>93</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3773,14 +3812,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3789,14 +3828,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3806,14 +3845,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3822,31 +3861,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3855,31 +3894,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>87</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>27</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3888,31 +3927,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>37</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3921,31 +3960,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>69</v>
+        <v>173</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>115</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3954,31 +3993,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3987,31 +4026,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>37</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4020,31 +4059,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>53</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4053,31 +4092,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>247</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4086,31 +4125,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>85</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>74</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>60</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4119,28 +4158,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>37</v>
@@ -4152,28 +4191,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>69</v>
+        <v>241</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>37</v>
@@ -4185,28 +4224,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>37</v>
@@ -4218,31 +4257,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>260</v>
+        <v>93</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>69</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4251,31 +4290,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>37</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4284,31 +4323,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4317,28 +4356,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>93</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>69</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>37</v>
@@ -4350,28 +4389,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>37</v>
+        <v>267</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>37</v>
@@ -4383,7 +4422,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4396,15 +4435,15 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>35</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>36</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>37</v>
@@ -4416,31 +4455,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4449,28 +4488,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>37</v>
@@ -4482,28 +4521,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>37</v>
@@ -4515,28 +4554,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>37</v>
@@ -4548,28 +4587,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>37</v>
@@ -4581,28 +4620,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>231</v>
+        <v>35</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>243</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>37</v>
@@ -4614,66 +4653,264 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>5276.0349999999999</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
-        <v>278</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
-        <v>279</v>
-      </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
-        <v>280</v>
-      </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>282</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>27</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>49</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>283</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>284</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>285</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>93</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>49</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>237</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>286</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>277</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>49</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>270</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>287</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>34</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>49</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>283</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>284</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>288</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>230</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>49</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>241</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>289</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>290</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>49</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>237</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>5666.5349999999999</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>291</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>292</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>293</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5162,10 +5399,40 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -188,6 +188,18 @@
     <t>164.0000</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CETAFEN PLUS 30 TAB.</t>
   </si>
   <si>
@@ -701,159 +713,162 @@
     <t>XORAXON 1GM I.M. VIAL</t>
   </si>
   <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>280.0000</t>
+  </si>
+  <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بيبرونه ALGO صغيره </t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>82:0</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>رباط ضغط 6سم</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا وسط 90 مل</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>41:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>شامبو جونسون 100 مل</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>34:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>كريم فاتيكا 65 مل</t>
+  </si>
+  <si>
+    <t>كريم فيرند لافلي الصغير</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>لبخه كوالين CREAM</t>
+  </si>
+  <si>
+    <t>محلول رينجر</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t>ZYRTEC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>30:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بيبرونه ALGO صغيره </t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>82:0</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>حنه جلوري سوده 1 كيس</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>رباط ضغط 6سم</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>زيت فاتيكا وسط 90 مل</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>41:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>شامبو جونسون 100 مل</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات فينوس حريمي </t>
-  </si>
-  <si>
-    <t>34:0</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>قطن 100 جم</t>
-  </si>
-  <si>
-    <t>26:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>كريم فاتيكا 65 مل</t>
-  </si>
-  <si>
-    <t>كريم فيرند لافلي الصغير</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>لبخه كوالين CREAM</t>
-  </si>
-  <si>
-    <t>محلول رينجر</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
     <t>96.0000</t>
   </si>
   <si>
@@ -884,7 +899,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 9:36 PM</t>
+    <t>Thursday, 24 July, 2025 9:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1921,7 +1936,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1931,14 +1946,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1947,14 +1962,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1971,7 +1986,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1987,7 +2002,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1997,14 +2012,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2013,14 +2028,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2030,14 +2045,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2046,14 +2061,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2070,7 +2085,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2079,14 +2094,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2103,7 +2118,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2129,14 +2144,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2145,14 +2160,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2162,14 +2177,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2178,14 +2193,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2195,14 +2210,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2211,14 +2226,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2228,14 +2243,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2244,14 +2259,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2261,11 +2276,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>37</v>
@@ -2277,14 +2292,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2294,14 +2309,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2310,14 +2325,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2327,14 +2342,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2343,14 +2358,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2383,7 +2398,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2393,11 +2408,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2409,7 +2424,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2426,14 +2441,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2442,14 +2457,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2459,14 +2474,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>111</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2482,7 +2497,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2492,14 +2507,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2508,14 +2523,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2525,11 +2540,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2541,14 +2556,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2558,11 +2573,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2574,14 +2589,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2598,7 +2613,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2614,7 +2629,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2624,14 +2639,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2640,14 +2655,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2657,14 +2672,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2673,14 +2688,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2690,14 +2705,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2706,14 +2721,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2723,14 +2738,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2739,14 +2754,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2756,14 +2771,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2772,14 +2787,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2789,14 +2804,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2805,14 +2820,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2822,11 +2837,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>37</v>
@@ -2838,14 +2853,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2862,7 +2877,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>149</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2871,14 +2886,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2895,7 +2910,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>37</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2904,14 +2919,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2925,10 +2940,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2937,14 +2952,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2954,14 +2969,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2970,14 +2985,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2987,14 +3002,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3003,31 +3018,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3036,28 +3051,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3069,14 +3084,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3086,14 +3101,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3102,14 +3117,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3119,11 +3134,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>37</v>
@@ -3135,14 +3150,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3152,14 +3167,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3168,14 +3183,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3185,14 +3200,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3201,7 +3216,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3218,14 +3233,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3234,14 +3249,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3251,14 +3266,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3267,28 +3282,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3307,7 +3322,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3317,14 +3332,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3333,28 +3348,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>120</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>37</v>
@@ -3366,14 +3381,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>97</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3390,7 +3405,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>146</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3406,7 +3421,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3416,14 +3431,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>72</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3432,14 +3447,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3449,14 +3464,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>127</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3465,14 +3480,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3482,14 +3497,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>31</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3498,14 +3513,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3515,14 +3530,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>201</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3531,14 +3546,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3548,14 +3563,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>37</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3564,14 +3579,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3581,11 +3596,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>37</v>
@@ -3597,14 +3612,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3614,11 +3629,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>91</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>37</v>
@@ -3630,14 +3645,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3647,11 +3662,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>37</v>
@@ -3663,14 +3678,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>37</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3680,11 +3695,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>37</v>
@@ -3696,14 +3711,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3713,14 +3728,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>102</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3729,14 +3744,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3746,14 +3761,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>35</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3762,14 +3777,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3779,14 +3794,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3795,14 +3810,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3812,11 +3827,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>37</v>
@@ -3828,14 +3843,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3845,11 +3860,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>37</v>
@@ -3861,14 +3876,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3878,14 +3893,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3894,14 +3909,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3911,14 +3926,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>87</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>29</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3927,14 +3942,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>81</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3944,14 +3959,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>91</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>122</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3960,14 +3975,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3977,14 +3992,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>34</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3993,14 +4008,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4010,14 +4025,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>177</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4026,20 +4041,20 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>37</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -4050,7 +4065,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4099,7 +4114,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4109,14 +4124,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4125,14 +4140,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4142,14 +4157,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>122</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4158,14 +4173,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>34</v>
+        <v>251</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4175,14 +4190,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>78</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>37</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4191,14 +4206,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4208,11 +4223,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>37</v>
@@ -4224,14 +4239,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4241,11 +4256,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>37</v>
@@ -4257,14 +4272,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4274,14 +4289,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4290,14 +4305,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4307,14 +4322,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>260</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4323,14 +4338,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4340,14 +4355,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>63</v>
+        <v>264</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4356,14 +4371,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4373,14 +4388,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4389,14 +4404,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>267</v>
+        <v>97</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4406,11 +4421,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>37</v>
@@ -4422,14 +4437,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>34</v>
+        <v>271</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4439,11 +4454,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>37</v>
@@ -4455,14 +4470,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>273</v>
+        <v>34</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4472,11 +4487,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>74</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>37</v>
@@ -4488,14 +4503,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>93</v>
+        <v>277</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4505,11 +4520,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>37</v>
@@ -4521,14 +4536,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4538,11 +4553,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>37</v>
@@ -4554,14 +4569,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>277</v>
+        <v>56</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4571,11 +4586,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>74</v>
+        <v>241</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>37</v>
@@ -4587,14 +4602,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>37</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4604,11 +4619,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>37</v>
@@ -4620,14 +4635,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4637,11 +4652,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>36</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>37</v>
@@ -4653,14 +4668,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4674,10 +4689,10 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4686,14 +4701,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>27</v>
+        <v>285</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4703,14 +4718,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>35</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4719,14 +4734,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4736,11 +4751,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>237</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>37</v>
@@ -4752,14 +4767,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>277</v>
+        <v>97</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4769,11 +4784,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>37</v>
@@ -4785,14 +4800,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>34</v>
+        <v>281</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4802,11 +4817,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>37</v>
@@ -4818,14 +4833,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4835,11 +4850,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>241</v>
+        <v>288</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>37</v>
@@ -4851,14 +4866,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4868,49 +4883,82 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>37</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>5666.5349999999999</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>291</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>292</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
-        <v>293</v>
-      </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>294</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>295</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>49</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>241</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>5821.5349999999999</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
+        <v>296</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>297</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>298</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5429,10 +5477,15 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -347,6 +347,21 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:7</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -356,9 +371,6 @@
     <t>15.6000</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -404,9 +416,6 @@
     <t>54.00</t>
   </si>
   <si>
-    <t>35.6400</t>
-  </si>
-  <si>
     <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
   </si>
   <si>
@@ -449,6 +458,9 @@
     <t>264.0000</t>
   </si>
   <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
     <t>IVYROSPAN SYRUP 100 ML</t>
   </si>
   <si>
@@ -569,9 +581,6 @@
     <t>3:2</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>27.0000</t>
   </si>
   <si>
@@ -668,7 +677,7 @@
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
-    <t>48.0000</t>
+    <t>72.0000</t>
   </si>
   <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
@@ -899,7 +908,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 9:37 PM</t>
+    <t>Thursday, 24 July, 2025 9:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2507,14 +2516,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2523,14 +2532,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2540,14 +2549,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2556,14 +2565,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2573,11 +2582,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2589,14 +2598,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2606,11 +2615,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2622,14 +2631,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2646,7 +2655,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2662,7 +2671,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2672,14 +2681,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2688,14 +2697,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2705,14 +2714,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2728,7 +2737,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2745,7 +2754,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2761,7 +2770,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2778,7 +2787,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2794,7 +2803,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2804,14 +2813,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2820,14 +2829,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2837,14 +2846,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2860,7 +2869,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2893,7 +2902,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2903,14 +2912,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>153</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2919,7 +2928,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2936,11 +2945,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>37</v>
@@ -2952,14 +2961,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2969,14 +2978,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2985,14 +2994,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3002,11 +3011,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>37</v>
@@ -3018,14 +3027,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3035,14 +3044,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3051,31 +3060,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3084,14 +3093,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3101,14 +3110,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3117,7 +3126,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3130,18 +3139,18 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3157,7 +3166,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3167,14 +3176,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3183,14 +3192,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3200,14 +3209,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3233,14 +3242,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3249,14 +3258,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3266,14 +3275,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3282,14 +3291,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3299,11 +3308,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3315,31 +3324,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3348,31 +3357,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3381,31 +3390,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3414,31 +3423,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>150</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3447,14 +3456,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3464,14 +3473,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3480,14 +3489,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3497,14 +3506,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>37</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3513,14 +3522,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3530,14 +3539,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3546,14 +3555,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3563,14 +3572,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>205</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3579,14 +3588,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3596,14 +3605,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3612,14 +3621,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3629,14 +3638,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>37</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3645,14 +3654,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3662,11 +3671,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>37</v>
@@ -3678,14 +3687,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3695,11 +3704,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>37</v>
@@ -3711,14 +3720,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>97</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3728,11 +3737,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>37</v>
@@ -3744,7 +3753,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3761,14 +3770,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3777,14 +3786,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>34</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3794,14 +3803,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3810,14 +3819,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3827,14 +3836,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3850,7 +3859,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3860,14 +3869,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3883,7 +3892,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3893,11 +3902,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>165</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>37</v>
@@ -3909,7 +3918,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3926,14 +3935,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3942,14 +3951,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3959,14 +3968,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>91</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>29</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3975,14 +3984,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3992,14 +4001,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4008,14 +4017,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4025,14 +4034,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>177</v>
+        <v>91</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>126</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4041,14 +4050,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4058,14 +4067,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4074,31 +4083,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>27</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4107,31 +4116,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4140,14 +4149,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>27</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4157,14 +4166,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4173,14 +4182,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4190,14 +4199,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>126</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4206,14 +4215,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4223,11 +4232,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>37</v>
@@ -4239,14 +4248,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4256,14 +4265,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>37</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4272,14 +4281,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4289,11 +4298,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>37</v>
@@ -4312,7 +4321,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4322,14 +4331,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4338,14 +4347,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4355,14 +4364,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>264</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4371,7 +4380,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4388,14 +4397,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4404,7 +4413,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4421,14 +4430,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>37</v>
+        <v>267</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4437,14 +4446,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>271</v>
+        <v>97</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4454,14 +4463,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4470,14 +4479,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4487,11 +4496,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>37</v>
@@ -4503,14 +4512,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4524,7 +4533,7 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>37</v>
@@ -4536,14 +4545,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4553,11 +4562,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>37</v>
@@ -4576,7 +4585,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>56</v>
+        <v>280</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4586,11 +4595,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>37</v>
@@ -4602,14 +4611,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>97</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4619,11 +4628,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>37</v>
@@ -4642,7 +4651,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4652,11 +4661,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>37</v>
@@ -4675,7 +4684,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>34</v>
+        <v>284</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4685,11 +4694,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>36</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>37</v>
@@ -4701,14 +4710,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>285</v>
+        <v>37</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4718,14 +4727,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>35</v>
+        <v>248</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4734,14 +4743,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4751,11 +4760,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>35</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>37</v>
@@ -4767,14 +4776,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>97</v>
+        <v>288</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4784,14 +4793,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>241</v>
+        <v>35</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4800,14 +4809,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>281</v>
+        <v>27</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4817,11 +4826,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>37</v>
@@ -4833,14 +4842,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4850,11 +4859,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>37</v>
@@ -4866,14 +4875,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4883,11 +4892,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>37</v>
@@ -4899,14 +4908,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>295</v>
+        <v>34</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4916,49 +4925,115 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>246</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>37</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>5821.5349999999999</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
         <v>296</v>
       </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>288</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>49</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>248</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
         <v>297</v>
       </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
         <v>298</v>
       </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>49</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>244</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>5926.1750000000002</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>299</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>300</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>301</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5482,10 +5557,20 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -638,6 +638,18 @@
     <t>0:-2</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
   </si>
   <si>
@@ -908,7 +920,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 9:41 PM</t>
+    <t>Thursday, 24 July, 2025 9:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3661,7 +3673,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3671,11 +3683,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>37</v>
@@ -3687,14 +3699,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3704,11 +3716,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>37</v>
@@ -3720,7 +3732,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3737,11 +3749,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>95</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>37</v>
@@ -3753,14 +3765,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3786,14 +3798,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>37</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3803,11 +3815,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>37</v>
@@ -3819,14 +3831,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>37</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3836,14 +3848,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3852,14 +3864,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3869,14 +3881,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>35</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3885,14 +3897,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3902,14 +3914,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3918,14 +3930,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3935,11 +3947,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>37</v>
@@ -3951,7 +3963,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3968,11 +3980,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>37</v>
@@ -3984,7 +3996,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4001,14 +4013,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4017,14 +4029,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4034,14 +4046,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>91</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4050,14 +4062,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4067,14 +4079,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>130</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4083,14 +4095,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4100,11 +4112,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>130</v>
@@ -4116,14 +4128,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>37</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4133,14 +4145,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4149,20 +4161,20 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>37</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4173,7 +4185,7 @@
         <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4222,7 +4234,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4232,14 +4244,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4248,14 +4260,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>27</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4265,14 +4277,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>130</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4281,14 +4293,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>34</v>
+        <v>258</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4298,14 +4310,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>37</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4314,14 +4326,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4331,11 +4343,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>37</v>
@@ -4347,14 +4359,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4364,11 +4376,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>37</v>
@@ -4380,14 +4392,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4397,14 +4409,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4413,7 +4425,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4430,14 +4442,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>267</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4446,7 +4458,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4463,14 +4475,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>67</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4479,7 +4491,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4496,14 +4508,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4512,14 +4524,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>274</v>
+        <v>97</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4529,11 +4541,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>78</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>37</v>
@@ -4545,14 +4557,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>34</v>
+        <v>278</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4562,11 +4574,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>37</v>
@@ -4578,14 +4590,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>280</v>
+        <v>34</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4595,11 +4607,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>37</v>
@@ -4611,14 +4623,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>97</v>
+        <v>284</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4628,11 +4640,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>37</v>
@@ -4644,14 +4656,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4661,11 +4673,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>37</v>
@@ -4677,14 +4689,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>284</v>
+        <v>56</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4694,11 +4706,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>37</v>
@@ -4710,14 +4722,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>37</v>
+        <v>288</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4727,11 +4739,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>37</v>
@@ -4743,14 +4755,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4760,11 +4772,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>35</v>
+        <v>252</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>36</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>37</v>
@@ -4776,14 +4788,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>288</v>
+        <v>34</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4797,10 +4809,10 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>289</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4809,14 +4821,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>27</v>
+        <v>292</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4826,14 +4838,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>291</v>
+        <v>35</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4842,14 +4854,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4859,11 +4871,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>244</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>37</v>
@@ -4875,14 +4887,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>284</v>
+        <v>97</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4892,11 +4904,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>37</v>
@@ -4908,14 +4920,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>34</v>
+        <v>288</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4925,11 +4937,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>37</v>
@@ -4941,14 +4953,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>288</v>
+        <v>34</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4958,11 +4970,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>37</v>
@@ -4974,14 +4986,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -4991,49 +5003,82 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>37</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>5926.1750000000002</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
-        <v>299</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
-        <v>300</v>
-      </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
         <v>301</v>
       </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>302</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>49</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>248</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>5947.1750000000002</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>303</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>304</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>305</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5567,10 +5612,15 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -458,6 +458,12 @@
     <t>264.0000</t>
   </si>
   <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
@@ -470,6 +476,12 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -905,6 +917,9 @@
     <t>مسك صبايا1</t>
   </si>
   <si>
+    <t>معجون اسنان بارودونتكس 50مل</t>
+  </si>
+  <si>
     <t>معجون سنسوداين 50 مل</t>
   </si>
   <si>
@@ -920,7 +935,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 9:51 PM</t>
+    <t>Thursday, 24 July, 2025 10:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2914,7 +2929,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2924,11 +2939,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>37</v>
@@ -2940,14 +2955,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2957,11 +2972,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>37</v>
@@ -2973,14 +2988,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2990,14 +3005,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>157</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3006,14 +3021,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3023,11 +3038,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>37</v>
@@ -3039,14 +3054,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3056,14 +3071,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3072,14 +3087,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3089,11 +3104,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>37</v>
@@ -3105,14 +3120,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3122,14 +3137,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3138,31 +3153,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3171,14 +3186,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3188,14 +3203,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3204,7 +3219,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3217,18 +3232,18 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3244,7 +3259,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3254,14 +3269,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3270,14 +3285,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3287,14 +3302,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3320,14 +3335,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3336,14 +3351,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3353,14 +3368,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3369,14 +3384,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3386,11 +3401,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>95</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3402,31 +3417,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>37</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3435,31 +3450,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3468,31 +3483,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3501,31 +3516,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>154</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3534,14 +3549,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3551,14 +3566,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3567,14 +3582,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3584,14 +3599,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>37</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3600,14 +3615,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3617,14 +3632,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3640,7 +3655,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3650,14 +3665,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>208</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3673,7 +3688,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3683,14 +3698,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3699,14 +3714,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3716,14 +3731,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>37</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3732,14 +3747,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>97</v>
+        <v>214</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3772,7 +3787,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3782,11 +3797,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>37</v>
@@ -3805,7 +3820,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3815,11 +3830,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>37</v>
@@ -3831,14 +3846,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>97</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3848,11 +3863,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>37</v>
@@ -3881,14 +3896,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>94</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3897,14 +3912,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3914,14 +3929,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3930,14 +3945,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3947,14 +3962,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3963,14 +3978,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3980,14 +3995,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>181</v>
+        <v>35</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3996,14 +4011,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4013,11 +4028,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>37</v>
@@ -4029,7 +4044,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4046,14 +4061,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4062,14 +4077,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4079,14 +4094,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>91</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>29</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4102,7 +4117,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>97</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4112,14 +4127,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4135,7 +4150,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>81</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4145,14 +4160,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>181</v>
+        <v>91</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>130</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4161,14 +4176,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>37</v>
+        <v>242</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4178,14 +4193,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4194,31 +4209,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>27</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4227,31 +4242,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>37</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4260,14 +4275,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4277,14 +4292,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4293,14 +4308,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4310,14 +4325,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>78</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>130</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4326,14 +4341,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4343,11 +4358,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>37</v>
@@ -4359,14 +4374,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4376,14 +4391,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>37</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4392,14 +4407,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4409,11 +4424,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>37</v>
@@ -4425,14 +4440,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4442,14 +4457,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4465,7 +4480,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4475,14 +4490,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>271</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4491,7 +4506,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4508,14 +4523,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4524,7 +4539,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4541,14 +4556,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>37</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4557,14 +4572,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>278</v>
+        <v>97</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4574,14 +4589,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4590,14 +4605,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4607,11 +4622,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>37</v>
@@ -4623,14 +4638,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4644,7 +4659,7 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>37</v>
@@ -4656,14 +4671,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4673,11 +4688,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>37</v>
@@ -4689,14 +4704,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>56</v>
+        <v>288</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4706,11 +4721,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>37</v>
@@ -4722,14 +4737,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>288</v>
+        <v>97</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4739,11 +4754,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>78</v>
+        <v>256</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>37</v>
@@ -4755,14 +4770,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4776,7 +4791,7 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>37</v>
@@ -4788,14 +4803,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4805,11 +4820,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>36</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>37</v>
@@ -4821,14 +4836,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>292</v>
+        <v>37</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4838,14 +4853,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>35</v>
+        <v>256</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4861,7 +4876,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4871,11 +4886,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>295</v>
+        <v>35</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>37</v>
@@ -4887,14 +4902,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>97</v>
+        <v>296</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4904,14 +4919,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>248</v>
+        <v>35</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>253</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4927,7 +4942,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>288</v>
+        <v>27</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4937,11 +4952,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>37</v>
@@ -4953,14 +4968,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4970,11 +4985,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>37</v>
@@ -4986,14 +5001,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>292</v>
+        <v>37</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5003,11 +5018,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>37</v>
@@ -5019,14 +5034,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5036,49 +5051,148 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>37</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>5947.1750000000002</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>303</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
         <v>304</v>
       </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>34</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>49</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>299</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>300</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
         <v>305</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>296</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>49</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>256</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>306</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>307</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>49</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>252</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>257</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>6105.1750000000002</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>308</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>309</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>310</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5617,10 +5731,25 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -155,6 +155,15 @@
     <t>28.5000</t>
   </si>
   <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
@@ -524,6 +533,9 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -935,7 +947,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 10:06 PM</t>
+    <t>Thursday, 24 July, 2025 10:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1873,21 +1885,21 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>37</v>
@@ -1899,20 +1911,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1923,7 +1935,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1939,7 +1951,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1949,14 +1961,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1965,14 +1977,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1982,14 +1994,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1998,14 +2010,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2022,7 +2034,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2038,7 +2050,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2048,14 +2060,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2064,14 +2076,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2081,14 +2093,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2097,14 +2109,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2114,14 +2126,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2130,14 +2142,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2147,14 +2159,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>79</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2170,7 +2182,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2180,14 +2192,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2196,14 +2208,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2213,14 +2225,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2236,7 +2248,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2246,14 +2258,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2269,7 +2281,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2286,7 +2298,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2302,7 +2314,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2319,7 +2331,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2335,7 +2347,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2345,11 +2357,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>37</v>
@@ -2361,14 +2373,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2378,14 +2390,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2401,7 +2413,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2418,7 +2430,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2434,7 +2446,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2444,11 +2456,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2460,14 +2472,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2477,11 +2489,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2493,7 +2505,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2510,14 +2522,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2533,7 +2545,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2543,14 +2555,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>116</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2559,14 +2571,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2576,14 +2588,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>119</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>116</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2599,7 +2611,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2609,14 +2621,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2632,7 +2644,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2665,7 +2677,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2698,7 +2710,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2708,14 +2720,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2724,14 +2736,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2745,10 +2757,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2757,14 +2769,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2774,14 +2786,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2797,7 +2809,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2814,7 +2826,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2830,7 +2842,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2847,7 +2859,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2863,7 +2875,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2873,14 +2885,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2889,14 +2901,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2906,14 +2918,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2929,7 +2941,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2943,7 +2955,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>37</v>
@@ -2955,14 +2967,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2972,11 +2984,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>37</v>
@@ -2988,14 +3000,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3005,11 +3017,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>37</v>
@@ -3028,7 +3040,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3038,11 +3050,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>37</v>
@@ -3054,14 +3066,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3071,14 +3083,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>161</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3087,14 +3099,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3104,14 +3116,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>164</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>37</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3127,7 +3139,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3137,14 +3149,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3160,7 +3172,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3170,14 +3182,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3193,7 +3205,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3210,7 +3222,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3226,24 +3238,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3252,14 +3264,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3269,14 +3281,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3285,7 +3297,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3298,18 +3310,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>31</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3325,7 +3337,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3335,14 +3347,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3351,14 +3363,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3368,14 +3380,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3401,14 +3413,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3417,14 +3429,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3434,14 +3446,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3450,14 +3462,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>37</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3467,11 +3479,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3483,31 +3495,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3516,31 +3528,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>97</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3549,31 +3561,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>117</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3582,31 +3594,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>100</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>158</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3615,14 +3627,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3632,14 +3644,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3648,14 +3660,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3665,14 +3677,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>37</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3681,14 +3693,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3698,14 +3710,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3721,7 +3733,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3731,14 +3743,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>212</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3754,7 +3766,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3764,14 +3776,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>31</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3780,14 +3792,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3797,14 +3809,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>37</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3813,14 +3825,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>97</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3853,7 +3865,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3863,11 +3875,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>94</v>
+        <v>176</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>37</v>
@@ -3886,7 +3898,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3896,11 +3908,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>94</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>95</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>37</v>
@@ -3912,14 +3924,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>100</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3929,11 +3941,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>37</v>
@@ -3962,14 +3974,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>97</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3978,14 +3990,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3995,14 +4007,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4011,14 +4023,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4028,14 +4040,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>169</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>170</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4044,14 +4056,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4061,14 +4073,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>185</v>
+        <v>35</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4077,14 +4089,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4094,11 +4106,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>37</v>
@@ -4110,14 +4122,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4127,14 +4139,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4143,14 +4155,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4160,14 +4172,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>91</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>29</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4183,7 +4195,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>242</v>
+        <v>100</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4193,14 +4205,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4216,7 +4228,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>84</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4226,14 +4238,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>130</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4242,14 +4254,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>37</v>
+        <v>246</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4259,14 +4271,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4275,31 +4287,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>27</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4308,31 +4320,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>37</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4341,31 +4353,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4374,31 +4386,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>130</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4407,28 +4419,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>37</v>
@@ -4440,31 +4452,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>37</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4473,28 +4485,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>37</v>
@@ -4506,31 +4518,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4546,24 +4558,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>275</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4572,31 +4584,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4605,31 +4617,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>37</v>
+        <v>279</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4638,31 +4650,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>282</v>
+        <v>100</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4671,28 +4683,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>37</v>
@@ -4704,28 +4716,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>37</v>
@@ -4737,28 +4749,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>37</v>
@@ -4770,28 +4782,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>56</v>
+        <v>292</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>37</v>
@@ -4803,28 +4815,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>292</v>
+        <v>100</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>37</v>
@@ -4836,20 +4848,20 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4857,7 +4869,7 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>37</v>
@@ -4869,28 +4881,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>34</v>
+        <v>296</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>36</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>37</v>
@@ -4902,31 +4914,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>296</v>
+        <v>37</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>35</v>
+        <v>260</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4942,21 +4954,21 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>299</v>
+        <v>35</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>300</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>37</v>
@@ -4968,31 +4980,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>97</v>
+        <v>300</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>252</v>
+        <v>35</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5008,21 +5020,21 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>37</v>
@@ -5034,28 +5046,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>292</v>
+        <v>100</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>37</v>
@@ -5067,28 +5079,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>299</v>
+        <v>223</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>300</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>37</v>
@@ -5100,7 +5112,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5113,15 +5125,15 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>37</v>
@@ -5133,66 +5145,132 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>307</v>
+        <v>34</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>37</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>6105.1750000000002</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>308</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
         <v>309</v>
       </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>300</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>52</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>260</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>272</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
         <v>310</v>
       </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>311</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>52</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>256</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>6177.1750000000002</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
+        <v>312</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
+        <v>313</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>314</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5746,10 +5824,20 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -806,6 +806,12 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -827,9 +833,6 @@
     <t>رباط ضغط 6سم</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>زيت فاتيكا وسط 90 مل</t>
   </si>
   <si>
@@ -947,7 +950,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 10:29 PM</t>
+    <t>Thursday, 24 July, 2025 10:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4459,7 +4462,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4469,14 +4472,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>81</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>133</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4485,14 +4488,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>34</v>
+        <v>268</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4502,14 +4505,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>81</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>37</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4518,14 +4521,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4535,7 +4538,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4558,7 +4561,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4568,11 +4571,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>37</v>
@@ -4591,7 +4594,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4601,14 +4604,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4617,7 +4620,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4634,14 +4637,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>279</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4650,7 +4653,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4667,14 +4670,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>70</v>
+        <v>280</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4683,7 +4686,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4700,14 +4703,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4716,14 +4719,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>286</v>
+        <v>100</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4733,11 +4736,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>37</v>
@@ -4749,14 +4752,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>34</v>
+        <v>287</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4766,11 +4769,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>81</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>37</v>
@@ -4782,14 +4785,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>292</v>
+        <v>34</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4799,11 +4802,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>37</v>
@@ -4815,14 +4818,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>100</v>
+        <v>293</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4832,11 +4835,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>260</v>
+        <v>81</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>37</v>
@@ -4855,7 +4858,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4865,11 +4868,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>37</v>
@@ -4888,7 +4891,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>296</v>
+        <v>59</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4898,11 +4901,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>81</v>
+        <v>256</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>37</v>
@@ -4914,14 +4917,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>37</v>
+        <v>297</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4931,11 +4934,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>260</v>
+        <v>81</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>37</v>
@@ -4954,7 +4957,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4964,11 +4967,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>35</v>
+        <v>260</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>36</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>37</v>
@@ -4987,7 +4990,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>300</v>
+        <v>34</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5001,10 +5004,10 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>301</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5013,14 +5016,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>27</v>
+        <v>301</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5030,14 +5033,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>303</v>
+        <v>35</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5046,14 +5049,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5063,11 +5066,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>37</v>
@@ -5086,7 +5089,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5096,11 +5099,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>37</v>
@@ -5119,7 +5122,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>296</v>
+        <v>37</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5129,11 +5132,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>289</v>
+        <v>223</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>290</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>37</v>
@@ -5152,7 +5155,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>34</v>
+        <v>297</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5162,11 +5165,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>37</v>
@@ -5185,7 +5188,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>300</v>
+        <v>34</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5195,11 +5198,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>37</v>
@@ -5218,7 +5221,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5228,49 +5231,82 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>311</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>312</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>52</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>256</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
         <v>261</v>
       </c>
-      <c t="s" r="Q117" s="12">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>6177.1750000000002</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
-        <v>312</v>
-      </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
+      <c t="s" r="Q118" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>6192.1750000000002</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
         <v>313</v>
       </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
         <v>314</v>
       </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>315</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5834,10 +5870,15 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -545,6 +545,9 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
@@ -563,6 +566,18 @@
     <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
+    <t xml:space="preserve">NEXICURE 5MG  SACHET</t>
+  </si>
+  <si>
+    <t>0:19</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
   </si>
   <si>
@@ -950,7 +965,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 10:31 PM</t>
+    <t>Thursday, 24 July, 2025 10:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3307,24 +3322,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3333,28 +3348,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3366,14 +3381,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3383,14 +3398,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3406,7 +3421,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3416,11 +3431,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>37</v>
@@ -3439,24 +3454,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>59</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3465,7 +3480,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3482,14 +3497,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3498,14 +3513,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3515,14 +3530,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3531,14 +3546,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>37</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3548,11 +3563,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>98</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3571,24 +3586,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>37</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3604,24 +3619,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3637,24 +3652,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3670,24 +3685,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>100</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>127</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>161</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3696,14 +3711,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3713,14 +3728,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3729,14 +3744,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3753,7 +3768,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>37</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3769,7 +3784,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3779,14 +3794,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3795,14 +3810,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3812,14 +3827,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>216</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3828,14 +3843,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3845,14 +3860,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>31</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3861,14 +3876,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3882,10 +3897,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>37</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3901,7 +3916,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3911,11 +3926,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>37</v>
@@ -3927,14 +3942,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3944,11 +3959,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>37</v>
@@ -3960,14 +3975,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3977,11 +3992,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>97</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>98</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>37</v>
@@ -3993,14 +4008,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>100</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4010,11 +4025,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>37</v>
@@ -4026,7 +4041,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4043,14 +4058,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4059,14 +4074,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4076,14 +4091,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4099,7 +4114,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4109,14 +4124,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>173</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4125,14 +4140,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4142,14 +4157,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>189</v>
+        <v>35</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4158,14 +4173,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4175,11 +4190,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>172</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>37</v>
@@ -4208,14 +4223,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4224,14 +4239,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4241,14 +4256,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>94</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>29</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4257,14 +4272,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>246</v>
+        <v>100</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4278,10 +4293,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>82</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>133</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4290,14 +4305,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>249</v>
+        <v>84</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4307,14 +4322,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>189</v>
+        <v>94</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>133</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4323,14 +4338,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>37</v>
+        <v>251</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4344,10 +4359,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4356,31 +4371,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>27</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4389,31 +4404,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>259</v>
+        <v>37</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4422,14 +4437,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4439,14 +4454,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4455,14 +4470,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4472,14 +4487,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4495,7 +4510,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>268</v>
+        <v>27</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4505,14 +4520,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>133</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4528,7 +4543,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>34</v>
+        <v>223</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4538,11 +4553,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>37</v>
@@ -4554,14 +4569,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>37</v>
+        <v>273</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4571,14 +4586,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>260</v>
+        <v>81</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>37</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4587,14 +4602,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4604,11 +4619,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>37</v>
@@ -4620,14 +4635,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4637,14 +4652,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4653,14 +4668,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4670,14 +4685,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>280</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4686,7 +4701,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4703,14 +4718,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4719,7 +4734,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4736,14 +4751,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>37</v>
+        <v>285</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4759,7 +4774,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>287</v>
+        <v>100</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4769,14 +4784,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4792,7 +4807,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4806,7 +4821,7 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>37</v>
@@ -4818,14 +4833,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4839,7 +4854,7 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>37</v>
@@ -4858,7 +4873,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4868,11 +4883,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>37</v>
@@ -4884,14 +4899,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>59</v>
+        <v>298</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4901,11 +4916,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>37</v>
@@ -4917,14 +4932,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>297</v>
+        <v>100</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4934,11 +4949,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>37</v>
@@ -4950,14 +4965,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4967,7 +4982,7 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
@@ -4983,14 +4998,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>34</v>
+        <v>302</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5000,11 +5015,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>36</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>37</v>
@@ -5016,14 +5031,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>301</v>
+        <v>37</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5033,14 +5048,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>35</v>
+        <v>265</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5049,14 +5064,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5066,11 +5081,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>304</v>
+        <v>35</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>305</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>37</v>
@@ -5082,14 +5097,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>100</v>
+        <v>306</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5099,14 +5114,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>256</v>
+        <v>35</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>261</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5115,14 +5130,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5132,11 +5147,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>223</v>
+        <v>309</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>224</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>37</v>
@@ -5148,14 +5163,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>297</v>
+        <v>100</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5165,11 +5180,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>37</v>
@@ -5181,14 +5196,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5198,11 +5213,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>304</v>
+        <v>228</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>37</v>
@@ -5214,14 +5229,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5231,11 +5246,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>37</v>
@@ -5247,14 +5262,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>312</v>
+        <v>34</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5264,49 +5279,115 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
+        <v>310</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>315</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>306</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>52</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>265</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>316</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>317</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>52</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
         <v>261</v>
       </c>
-      <c t="s" r="Q118" s="12">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>6192.1750000000002</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>313</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
-        <v>314</v>
-      </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
-        <v>315</v>
-      </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>6265.1750000000002</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>318</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>319</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>320</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5875,10 +5956,20 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -77,33 +77,36 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>114.8400</t>
+  </si>
+  <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>86.1300</t>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
     <t>0:3</t>
   </si>
   <si>
-    <t>AMBEZIM-G 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -122,9 +125,6 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
@@ -942,6 +942,12 @@
   </si>
   <si>
     <t>35.0000</t>
+  </si>
+  <si>
+    <t>مس كستالني</t>
+  </si>
+  <si>
+    <t>10.00</t>
   </si>
   <si>
     <t>مسك صبايا1</t>
@@ -1738,7 +1744,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1748,14 +1754,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1764,14 +1770,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1781,14 +1787,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1804,7 +1810,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1837,7 +1843,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1854,7 +1860,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1887,7 +1893,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1920,7 +1926,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1936,7 +1942,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1953,7 +1959,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1969,7 +1975,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1986,7 +1992,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2052,7 +2058,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2068,7 +2074,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2118,7 +2124,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2134,7 +2140,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2200,7 +2206,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2250,7 +2256,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2316,7 +2322,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2332,7 +2338,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2382,7 +2388,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2415,7 +2421,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2530,7 +2536,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2563,7 +2569,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2580,7 +2586,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2639,7 +2645,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2778,7 +2784,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2844,7 +2850,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2860,7 +2866,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2893,7 +2899,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2910,7 +2916,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2959,7 +2965,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2976,7 +2982,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3009,7 +3015,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3042,7 +3048,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3075,7 +3081,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3108,7 +3114,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3174,7 +3180,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3207,7 +3213,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3223,7 +3229,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3240,7 +3246,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3273,7 +3279,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3322,7 +3328,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3339,7 +3345,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3365,7 +3371,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3438,7 +3444,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3487,7 +3493,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3504,7 +3510,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3553,7 +3559,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3586,7 +3592,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3702,7 +3708,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3735,7 +3741,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3784,7 +3790,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3834,7 +3840,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3860,7 +3866,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3933,7 +3939,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3949,7 +3955,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3966,7 +3972,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3999,7 +4005,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4032,7 +4038,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4048,7 +4054,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4065,7 +4071,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4098,7 +4104,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4114,7 +4120,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4157,14 +4163,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4197,7 +4203,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4230,7 +4236,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4263,7 +4269,7 @@
         <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4411,7 +4417,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4527,7 +4533,7 @@
         <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4560,7 +4566,7 @@
         <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4609,7 +4615,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4626,7 +4632,7 @@
         <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4642,7 +4648,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4659,7 +4665,7 @@
         <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4692,7 +4698,7 @@
         <v>269</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4824,7 +4830,7 @@
         <v>258</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4857,7 +4863,7 @@
         <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4873,7 +4879,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4890,7 +4896,7 @@
         <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4923,7 +4929,7 @@
         <v>293</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4956,7 +4962,7 @@
         <v>271</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4989,7 +4995,7 @@
         <v>266</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5022,7 +5028,7 @@
         <v>293</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5038,7 +5044,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5055,7 +5061,7 @@
         <v>271</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5071,7 +5077,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5081,14 +5087,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5114,7 +5120,7 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
@@ -5154,7 +5160,7 @@
         <v>310</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5170,7 +5176,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5180,14 +5186,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>266</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5196,14 +5202,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5213,14 +5219,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5229,14 +5235,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>302</v>
+        <v>22</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5246,14 +5252,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>295</v>
+        <v>228</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>296</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5262,14 +5268,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>34</v>
+        <v>302</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5279,14 +5285,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5295,14 +5301,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>306</v>
+        <v>35</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5312,14 +5318,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5328,14 +5334,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5345,49 +5351,82 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>318</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>319</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>52</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>261</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
         <v>266</v>
       </c>
-      <c t="s" r="Q120" s="12">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>6265.1750000000002</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>318</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
-        <v>319</v>
-      </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
+      <c t="s" r="Q121" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>6303.8850000000002</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
         <v>320</v>
       </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>321</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>322</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5966,10 +6005,15 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -530,22 +530,25 @@
     <t>31.00</t>
   </si>
   <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
+  </si>
+  <si>
     <t>31.0000</t>
-  </si>
-  <si>
-    <t>MICONAZ 2% ORAL GEL 20 GM</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
   </si>
   <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
@@ -3229,7 +3232,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3246,7 +3249,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3342,7 +3345,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>22</v>
@@ -3354,7 +3357,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3375,7 +3378,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3387,7 +3390,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3404,11 +3407,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3420,7 +3423,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3441,7 +3444,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>22</v>
@@ -3453,14 +3456,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3470,11 +3473,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>116</v>
@@ -3486,7 +3489,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3519,7 +3522,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3536,11 +3539,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>59</v>
@@ -3552,7 +3555,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3569,11 +3572,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3585,7 +3588,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3602,11 +3605,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>79</v>
@@ -3618,14 +3621,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3651,14 +3654,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3672,7 +3675,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3684,7 +3687,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3705,7 +3708,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>22</v>
@@ -3717,7 +3720,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3734,11 +3737,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>22</v>
@@ -3750,14 +3753,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3767,11 +3770,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>161</v>
@@ -3783,7 +3786,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3804,7 +3807,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>79</v>
@@ -3816,7 +3819,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3833,11 +3836,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>22</v>
@@ -3849,7 +3852,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3882,7 +3885,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3903,10 +3906,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3915,14 +3918,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3932,11 +3935,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>22</v>
@@ -3948,7 +3951,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3969,7 +3972,7 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>22</v>
@@ -3981,7 +3984,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3998,11 +4001,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>22</v>
@@ -4014,7 +4017,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4047,7 +4050,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4080,14 +4083,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4101,7 +4104,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>22</v>
@@ -4113,7 +4116,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4130,11 +4133,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4146,7 +4149,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4167,7 +4170,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>35</v>
@@ -4179,7 +4182,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4200,7 +4203,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>22</v>
@@ -4212,7 +4215,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4229,11 +4232,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>22</v>
@@ -4245,7 +4248,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4262,11 +4265,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>22</v>
@@ -4278,7 +4281,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4295,11 +4298,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4311,7 +4314,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4344,14 +4347,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4361,7 +4364,7 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4377,14 +4380,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4394,11 +4397,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>133</v>
@@ -4410,7 +4413,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4427,11 +4430,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4443,14 +4446,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4460,11 +4463,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>27</v>
@@ -4476,14 +4479,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4493,11 +4496,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>27</v>
@@ -4509,7 +4512,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4526,11 +4529,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>22</v>
@@ -4542,14 +4545,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4559,11 +4562,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>22</v>
@@ -4575,14 +4578,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4596,7 +4599,7 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>133</v>
@@ -4608,7 +4611,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4625,11 +4628,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>22</v>
@@ -4641,7 +4644,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4658,11 +4661,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>22</v>
@@ -4674,7 +4677,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4691,11 +4694,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>22</v>
@@ -4707,7 +4710,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4724,11 +4727,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>59</v>
@@ -4740,7 +4743,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4757,14 +4760,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4773,7 +4776,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4790,11 +4793,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>70</v>
@@ -4806,7 +4809,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4823,11 +4826,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>22</v>
@@ -4839,14 +4842,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4860,7 +4863,7 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>22</v>
@@ -4872,7 +4875,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4889,11 +4892,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>22</v>
@@ -4905,14 +4908,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4926,7 +4929,7 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>22</v>
@@ -4938,7 +4941,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4955,11 +4958,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>22</v>
@@ -4971,7 +4974,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4988,11 +4991,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>22</v>
@@ -5004,14 +5007,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5025,7 +5028,7 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>22</v>
@@ -5037,7 +5040,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5054,11 +5057,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>22</v>
@@ -5070,7 +5073,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5103,14 +5106,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5124,7 +5127,7 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>59</v>
@@ -5136,7 +5139,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5153,11 +5156,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>22</v>
@@ -5169,7 +5172,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5186,7 +5189,7 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
@@ -5202,7 +5205,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5219,11 +5222,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>22</v>
@@ -5235,7 +5238,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5252,11 +5255,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>22</v>
@@ -5268,14 +5271,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5285,11 +5288,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>22</v>
@@ -5301,7 +5304,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5318,11 +5321,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>22</v>
@@ -5334,14 +5337,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5351,11 +5354,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>22</v>
@@ -5367,14 +5370,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5384,11 +5387,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>22</v>
@@ -5396,13 +5399,13 @@
     </row>
     <row r="122" ht="25.5" customHeight="1">
       <c r="P122" s="13">
-        <v>6303.8850000000002</v>
+        <v>6334.8850000000002</v>
       </c>
       <c r="Q122" s="13"/>
     </row>
     <row r="123" ht="16.5" customHeight="1">
       <c t="s" r="A123" s="14">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -5410,13 +5413,13 @@
       <c r="E123" s="14"/>
       <c r="F123" s="14"/>
       <c t="s" r="G123" s="15">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H123" s="15"/>
       <c r="I123" s="15"/>
       <c r="J123" s="16"/>
       <c t="s" r="K123" s="17">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L123" s="17"/>
       <c r="M123" s="17"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -155,6 +155,15 @@
     <t>28.5000</t>
   </si>
   <si>
+    <t>BETAPRONATE PLUS CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>CALAMYL LOTION 100 ML</t>
   </si>
   <si>
@@ -506,6 +515,15 @@
     <t>1:2</t>
   </si>
   <si>
+    <t>LAMIFEN 250MG 14 TAB</t>
+  </si>
+  <si>
+    <t>112.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>LIPANTHYL 300MG 30 CAPSULES</t>
   </si>
   <si>
@@ -599,9 +617,6 @@
     <t>56.00</t>
   </si>
   <si>
-    <t>28.0000</t>
-  </si>
-  <si>
     <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
   </si>
   <si>
@@ -738,9 +753,6 @@
   </si>
   <si>
     <t>VECOVARTEC PLUS 20/12.5MG 21 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>56.0000</t>
   </si>
   <si>
     <t>VIRUSTAT 200MG/5ML SUSP. 120 ML</t>
@@ -1945,21 +1957,21 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>22</v>
@@ -1971,20 +1983,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1995,7 +2007,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2011,7 +2023,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2021,14 +2033,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2037,14 +2049,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2054,14 +2066,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2070,14 +2082,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2094,7 +2106,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2110,7 +2122,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2120,14 +2132,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2136,14 +2148,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2153,14 +2165,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2169,14 +2181,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2186,14 +2198,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2202,14 +2214,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2219,14 +2231,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>82</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2242,7 +2254,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2252,14 +2264,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2268,14 +2280,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2285,14 +2297,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2308,7 +2320,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2318,14 +2330,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2341,7 +2353,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2358,7 +2370,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2374,7 +2386,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2391,7 +2403,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2407,7 +2419,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2417,11 +2429,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>22</v>
@@ -2433,14 +2445,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2450,14 +2462,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2473,7 +2485,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2490,7 +2502,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2506,7 +2518,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2516,11 +2528,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2532,14 +2544,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2549,11 +2561,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2565,7 +2577,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2582,14 +2594,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2605,7 +2617,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2615,14 +2627,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>119</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2631,14 +2643,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2648,14 +2660,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>122</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>119</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2671,7 +2683,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2681,14 +2693,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2704,7 +2716,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2737,7 +2749,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2770,7 +2782,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2780,14 +2792,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2796,14 +2808,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2817,10 +2829,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2829,14 +2841,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2846,14 +2858,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2869,7 +2881,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2886,7 +2898,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2902,7 +2914,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2919,7 +2931,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2935,7 +2947,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2945,14 +2957,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2961,14 +2973,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2978,14 +2990,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3001,7 +3013,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3015,7 +3027,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>22</v>
@@ -3027,14 +3039,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3044,11 +3056,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>22</v>
@@ -3060,14 +3072,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3077,11 +3089,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>22</v>
@@ -3100,7 +3112,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3110,11 +3122,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>22</v>
@@ -3126,14 +3138,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3143,14 +3155,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>164</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3159,14 +3171,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3176,14 +3188,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>167</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3199,7 +3211,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3209,14 +3221,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3232,7 +3244,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3249,7 +3261,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3265,7 +3277,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3275,14 +3287,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3291,14 +3303,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3308,14 +3320,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3324,14 +3336,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3341,11 +3353,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>22</v>
@@ -3357,31 +3369,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3390,14 +3402,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3407,14 +3419,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3423,7 +3435,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3436,18 +3448,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3456,31 +3468,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3489,14 +3501,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3506,11 +3518,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>22</v>
@@ -3522,31 +3534,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>59</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3555,7 +3567,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3572,14 +3584,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3595,7 +3607,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3612,7 +3624,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3628,7 +3640,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3638,11 +3650,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3661,24 +3673,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>117</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3694,24 +3706,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3727,24 +3739,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>120</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3760,24 +3772,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>103</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>161</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3786,14 +3798,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3803,14 +3815,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3819,14 +3831,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>100</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3843,7 +3855,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3859,7 +3871,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3869,14 +3881,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3885,14 +3897,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3902,14 +3914,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>222</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3918,14 +3930,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3935,14 +3947,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>32</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3951,14 +3963,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3968,14 +3980,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3991,7 +4003,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4001,11 +4013,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>22</v>
@@ -4017,14 +4029,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4034,11 +4046,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>98</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>22</v>
@@ -4050,14 +4062,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4067,11 +4079,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>97</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>98</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>22</v>
@@ -4083,14 +4095,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>234</v>
+        <v>103</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4100,11 +4112,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>22</v>
@@ -4116,7 +4128,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4133,14 +4145,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>100</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4149,14 +4161,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4166,14 +4178,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4189,7 +4201,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4199,14 +4211,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>172</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4215,14 +4227,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4232,14 +4244,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>195</v>
+        <v>36</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4248,14 +4260,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4265,11 +4277,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>178</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>22</v>
@@ -4288,7 +4300,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4298,14 +4310,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4314,14 +4326,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4331,14 +4343,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>94</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4354,7 +4366,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>252</v>
+        <v>103</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4364,14 +4376,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>133</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4387,7 +4399,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>255</v>
+        <v>87</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4397,14 +4409,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>195</v>
+        <v>97</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>133</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4413,14 +4425,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>22</v>
+        <v>256</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4430,14 +4442,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4446,31 +4458,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>27</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4479,31 +4491,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>265</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4512,31 +4524,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>27</v>
+        <v>265</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4545,31 +4557,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4578,31 +4590,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>274</v>
+        <v>27</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>81</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>133</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4611,28 +4623,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>35</v>
+        <v>229</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>22</v>
@@ -4644,31 +4656,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>278</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>266</v>
+        <v>84</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>22</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4684,21 +4696,21 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>22</v>
@@ -4710,31 +4722,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4750,24 +4762,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>286</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4776,31 +4788,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4809,31 +4821,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>22</v>
+        <v>290</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4842,31 +4854,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>293</v>
+        <v>103</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>81</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4875,28 +4887,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>22</v>
@@ -4908,28 +4920,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>22</v>
@@ -4941,28 +4953,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>22</v>
@@ -4974,28 +4986,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>59</v>
+        <v>303</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>262</v>
+        <v>84</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>22</v>
@@ -5007,28 +5019,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>303</v>
+        <v>103</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>22</v>
@@ -5040,20 +5052,20 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
@@ -5061,7 +5073,7 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>22</v>
@@ -5073,28 +5085,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>35</v>
+        <v>307</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>37</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>22</v>
@@ -5106,31 +5118,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>307</v>
+        <v>22</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>36</v>
+        <v>270</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5146,21 +5158,21 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>310</v>
+        <v>36</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>311</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>22</v>
@@ -5172,31 +5184,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>133</v>
+        <v>311</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>313</v>
+        <v>36</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>82</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5205,28 +5217,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>22</v>
@@ -5238,28 +5250,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>229</v>
+        <v>317</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>230</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>22</v>
@@ -5271,28 +5283,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>303</v>
+        <v>103</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>22</v>
@@ -5304,28 +5316,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>310</v>
+        <v>234</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>311</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>22</v>
@@ -5337,7 +5349,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5350,15 +5362,15 @@
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>22</v>
@@ -5370,66 +5382,132 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>320</v>
+        <v>35</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>6334.8850000000002</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>321</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
         <v>322</v>
       </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>311</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>55</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>270</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
         <v>323</v>
       </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>324</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>55</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>266</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>6418.8850000000002</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
+        <v>325</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>326</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>327</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6013,10 +6091,20 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -840,6 +840,15 @@
   </si>
   <si>
     <t>15.0000</t>
+  </si>
+  <si>
+    <t>جنتيانا نقط</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
@@ -4663,7 +4672,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4673,14 +4682,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>84</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>136</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4696,7 +4705,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>35</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4706,14 +4715,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>84</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>22</v>
+        <v>136</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4729,7 +4738,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4739,11 +4748,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>22</v>
@@ -4755,14 +4764,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4772,11 +4781,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>22</v>
@@ -4788,14 +4797,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4805,14 +4814,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4838,14 +4847,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>290</v>
+        <v>62</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4871,14 +4880,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>292</v>
+      </c>
+      <c t="s" r="Q105" s="12">
         <v>293</v>
-      </c>
-      <c t="s" r="Q105" s="12">
-        <v>73</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4908,10 +4917,10 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4920,14 +4929,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>297</v>
+        <v>103</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4937,11 +4946,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>84</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>22</v>
@@ -4960,7 +4969,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4970,7 +4979,7 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>84</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
@@ -4993,7 +5002,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>303</v>
+        <v>35</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5003,11 +5012,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>84</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>22</v>
@@ -5019,14 +5028,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>103</v>
+        <v>306</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5036,11 +5045,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>270</v>
+        <v>84</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>22</v>
@@ -5052,14 +5061,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5069,11 +5078,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>22</v>
@@ -5085,14 +5094,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>307</v>
+        <v>62</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5102,11 +5111,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>84</v>
+        <v>266</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>22</v>
@@ -5118,14 +5127,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>22</v>
+        <v>310</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5135,11 +5144,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>270</v>
+        <v>84</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>22</v>
@@ -5151,14 +5160,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5168,11 +5177,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>36</v>
+        <v>270</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>37</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>22</v>
@@ -5184,14 +5193,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>311</v>
+        <v>35</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5205,10 +5214,10 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>312</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5224,7 +5233,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>27</v>
+        <v>314</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5234,14 +5243,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>314</v>
+        <v>36</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
         <v>315</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5257,7 +5266,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5271,7 +5280,7 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>85</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>22</v>
@@ -5283,14 +5292,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5300,11 +5309,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>271</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>22</v>
@@ -5316,14 +5325,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5333,11 +5342,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>22</v>
@@ -5349,14 +5358,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>307</v>
+        <v>22</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5366,11 +5375,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>301</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>22</v>
@@ -5382,14 +5391,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5399,11 +5408,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>22</v>
@@ -5415,14 +5424,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>311</v>
+        <v>35</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5432,11 +5441,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>22</v>
@@ -5448,14 +5457,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5465,49 +5474,82 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>326</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>327</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>55</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>266</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
         <v>271</v>
       </c>
-      <c t="s" r="Q123" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>6418.8850000000002</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
-        <v>325</v>
-      </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
-        <v>326</v>
-      </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
-        <v>327</v>
-      </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c t="s" r="Q124" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>6425.8850000000002</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
+        <v>328</v>
+      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
+        <v>329</v>
+      </c>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>330</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6101,10 +6143,15 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -674,6 +674,12 @@
     <t>11.0000</t>
   </si>
   <si>
+    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
     <t>SOOTONIC HAIR LOTION 120 ML</t>
   </si>
   <si>
@@ -755,6 +761,12 @@
     <t>VECOVARTEC PLUS 20/12.5MG 21 F.C. TAB.</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>VIRUSTAT 200MG/5ML SUSP. 120 ML</t>
   </si>
   <si>
@@ -953,9 +965,6 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>96.0000</t>
   </si>
   <si>
@@ -995,7 +1004,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 10:34 PM</t>
+    <t>Thursday, 24 July, 2025 10:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3927,7 +3936,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>22</v>
@@ -3939,14 +3948,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3956,14 +3965,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>32</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3972,14 +3981,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3989,14 +3998,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>227</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4005,14 +4014,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>87</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4022,14 +4031,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4038,14 +4047,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4055,11 +4064,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>22</v>
@@ -4071,14 +4080,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4088,11 +4097,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>182</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>22</v>
@@ -4104,7 +4113,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4121,11 +4130,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>100</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>101</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>22</v>
@@ -4137,14 +4146,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4170,14 +4179,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4187,11 +4196,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>22</v>
@@ -4203,14 +4212,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4220,14 +4229,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>108</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4236,14 +4245,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4253,14 +4262,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4276,7 +4285,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4286,14 +4295,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>185</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4302,14 +4311,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4319,11 +4328,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>22</v>
@@ -4335,7 +4344,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4352,11 +4361,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>22</v>
@@ -4368,14 +4377,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>103</v>
+        <v>251</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4385,14 +4394,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4401,14 +4410,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4418,14 +4427,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>97</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>29</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4441,7 +4450,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>256</v>
+        <v>103</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4451,14 +4460,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>85</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4474,7 +4483,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>259</v>
+        <v>87</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4484,14 +4493,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>201</v>
+        <v>97</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>136</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4500,14 +4509,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4517,14 +4526,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4533,31 +4542,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>201</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>27</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4566,31 +4575,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>269</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4599,14 +4608,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>27</v>
+        <v>269</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4616,14 +4625,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4632,14 +4641,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4649,14 +4658,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4665,14 +4674,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>259</v>
+        <v>27</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4682,11 +4691,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>22</v>
@@ -4698,14 +4707,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4715,14 +4724,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>84</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>136</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4731,14 +4740,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>35</v>
+        <v>263</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4748,11 +4757,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>22</v>
@@ -4764,14 +4773,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>285</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4781,14 +4790,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>270</v>
+        <v>84</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>22</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4804,7 +4813,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4814,11 +4823,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>22</v>
@@ -4830,14 +4839,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4847,14 +4856,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4870,7 +4879,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4880,14 +4889,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>293</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4896,7 +4905,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4913,14 +4922,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4929,7 +4938,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4946,14 +4955,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>22</v>
+        <v>297</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4962,14 +4971,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>300</v>
+        <v>103</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4979,14 +4988,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>84</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4995,14 +5004,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5012,11 +5021,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>22</v>
@@ -5028,14 +5037,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5049,7 +5058,7 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>22</v>
@@ -5061,14 +5070,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5078,11 +5087,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>22</v>
@@ -5094,14 +5103,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>62</v>
+        <v>310</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5111,11 +5120,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>266</v>
+        <v>84</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>22</v>
@@ -5127,14 +5136,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>310</v>
+        <v>103</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5144,11 +5153,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>84</v>
+        <v>274</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>22</v>
@@ -5160,14 +5169,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5181,7 +5190,7 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>22</v>
@@ -5193,14 +5202,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>35</v>
+        <v>314</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5210,11 +5219,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>22</v>
@@ -5226,14 +5235,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>314</v>
+        <v>22</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5243,14 +5252,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>36</v>
+        <v>274</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5266,7 +5275,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5276,11 +5285,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>317</v>
+        <v>36</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>318</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>22</v>
@@ -5292,14 +5301,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5309,14 +5318,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>320</v>
+        <v>36</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>85</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5325,14 +5334,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5342,11 +5351,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>271</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>22</v>
@@ -5365,7 +5374,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5375,11 +5384,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>234</v>
+        <v>323</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>235</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>22</v>
@@ -5391,14 +5400,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>310</v>
+        <v>103</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5408,11 +5417,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>22</v>
@@ -5424,14 +5433,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5441,11 +5450,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>317</v>
+        <v>236</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>318</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>22</v>
@@ -5457,7 +5466,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5474,11 +5483,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>22</v>
@@ -5490,14 +5499,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>327</v>
+        <v>35</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5507,49 +5516,115 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>271</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
-      <c r="P125" s="13">
-        <v>6425.8850000000002</v>
-      </c>
-      <c r="Q125" s="13"/>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
-      <c t="s" r="A126" s="14">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
         <v>328</v>
       </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c t="s" r="G126" s="15">
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>251</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>55</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>274</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>280</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
         <v>329</v>
       </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-      <c t="s" r="K126" s="17">
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
         <v>330</v>
       </c>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="17"/>
-      <c r="Q126" s="17"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>55</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>270</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>6478.8850000000002</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>331</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>332</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>333</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="602">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6148,10 +6223,20 @@
     <mergeCell ref="H124:K124"/>
     <mergeCell ref="L124:M124"/>
     <mergeCell ref="N124:O124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -1004,7 +1004,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 10:35 PM</t>
+    <t>Thursday, 24 July, 2025 10:38 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -806,6 +806,12 @@
     <t>280.0000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
@@ -866,10 +872,10 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>82:0</t>
-  </si>
-  <si>
-    <t>100.0000</t>
+    <t>81:0</t>
+  </si>
+  <si>
+    <t>120.0000</t>
   </si>
   <si>
     <t>حنه جلوري سوده 1 كيس</t>
@@ -911,7 +917,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>33.0000</t>
+    <t>12:0</t>
   </si>
   <si>
     <t>شامبو جونسون 100 مل</t>
@@ -962,6 +968,9 @@
     <t>محلول رينجر</t>
   </si>
   <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -1001,10 +1010,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>Thursday, 24 July, 2025 10:38 PM</t>
+    <t>Thursday, 24 July, 2025 10:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4582,7 +4588,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4596,10 +4602,10 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4608,31 +4614,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>269</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4641,14 +4647,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4658,11 +4664,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>27</v>
@@ -4674,14 +4680,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>27</v>
+        <v>275</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4691,14 +4697,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4707,14 +4713,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>231</v>
+        <v>27</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4724,7 +4730,7 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4747,7 +4753,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4757,11 +4763,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>22</v>
@@ -4773,14 +4779,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4790,14 +4796,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>84</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>136</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4806,14 +4812,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4823,14 +4829,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>84</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>22</v>
+        <v>251</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4839,14 +4845,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4856,11 +4862,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>22</v>
@@ -4872,14 +4878,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4889,11 +4895,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>22</v>
@@ -4905,14 +4911,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4922,14 +4928,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4938,7 +4944,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4955,14 +4961,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>297</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4971,7 +4977,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4988,14 +4994,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>73</v>
+        <v>299</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5004,7 +5010,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5021,14 +5027,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>267</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>22</v>
+        <v>302</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5044,7 +5050,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>304</v>
+        <v>103</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5054,11 +5060,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>22</v>
@@ -5070,14 +5076,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>35</v>
+        <v>306</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5087,11 +5093,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>84</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>22</v>
@@ -5103,14 +5109,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>310</v>
+        <v>35</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5120,11 +5126,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>84</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>22</v>
@@ -5143,7 +5149,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>103</v>
+        <v>312</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5153,11 +5159,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>274</v>
+        <v>84</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>22</v>
@@ -5169,14 +5175,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5186,14 +5192,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5202,14 +5208,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>314</v>
+        <v>62</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5219,11 +5225,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>84</v>
+        <v>272</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>22</v>
@@ -5242,7 +5248,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>22</v>
+        <v>316</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5252,11 +5258,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>274</v>
+        <v>84</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>22</v>
@@ -5268,14 +5274,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5285,11 +5291,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>36</v>
+        <v>276</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>22</v>
@@ -5301,14 +5307,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>251</v>
+        <v>27</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5322,10 +5328,10 @@
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5334,14 +5340,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5351,14 +5357,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>320</v>
+        <v>36</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
         <v>321</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5374,7 +5380,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5388,7 +5394,7 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>85</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>22</v>
@@ -5400,14 +5406,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5417,11 +5423,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>275</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>22</v>
@@ -5433,14 +5439,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5450,11 +5456,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>22</v>
@@ -5466,14 +5472,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>314</v>
+        <v>22</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5483,11 +5489,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>307</v>
+        <v>236</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>308</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>22</v>
@@ -5499,14 +5505,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>35</v>
+        <v>316</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5516,11 +5522,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>22</v>
@@ -5532,14 +5538,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>251</v>
+        <v>35</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5549,11 +5555,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>274</v>
+        <v>323</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>22</v>
@@ -5565,14 +5571,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>330</v>
+        <v>251</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5582,49 +5588,82 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>6478.8850000000002</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>331</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
         <v>332</v>
       </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>302</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>55</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>272</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>6624.8850000000002</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
         <v>333</v>
       </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>334</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>335</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6233,10 +6272,15 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -1010,7 +1010,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 10:39 PM</t>
+    <t>Thursday, 24 July, 2025 10:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -965,6 +965,9 @@
     <t>لبخه كوالين CREAM</t>
   </si>
   <si>
+    <t>لونا مرطب صغير CREAM</t>
+  </si>
+  <si>
     <t>محلول رينجر</t>
   </si>
   <si>
@@ -1010,7 +1013,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 10:44 PM</t>
+    <t>Thursday, 24 July, 2025 10:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5324,14 +5327,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>36</v>
+        <v>279</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5340,14 +5343,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>251</v>
+        <v>27</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5361,10 +5364,10 @@
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5373,14 +5376,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5390,14 +5393,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>323</v>
+        <v>36</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5406,14 +5409,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5423,11 +5426,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>85</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>22</v>
@@ -5439,14 +5442,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5456,11 +5459,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>272</v>
+        <v>327</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>277</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>22</v>
@@ -5479,7 +5482,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5489,11 +5492,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>22</v>
@@ -5512,7 +5515,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>316</v>
+        <v>22</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5522,11 +5525,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>309</v>
+        <v>236</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>310</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>22</v>
@@ -5545,7 +5548,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>35</v>
+        <v>316</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5555,11 +5558,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>22</v>
@@ -5578,7 +5581,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>251</v>
+        <v>35</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5588,11 +5591,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>22</v>
@@ -5611,7 +5614,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>302</v>
+        <v>251</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5621,49 +5624,82 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
+        <v>282</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>333</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>302</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>55</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>272</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
         <v>277</v>
       </c>
-      <c t="s" r="Q127" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>6624.8850000000002</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
-        <v>333</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
+      <c t="s" r="Q128" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>6649.8850000000002</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
         <v>334</v>
       </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
         <v>335</v>
       </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>336</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6277,10 +6313,15 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -1013,7 +1013,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 10:45 PM</t>
+    <t>Thursday, 24 July, 2025 10:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -185,6 +185,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CEFIDIME 1 GM VIAL I.M./I.V.</t>
   </si>
   <si>
@@ -215,9 +224,6 @@
     <t>43.00</t>
   </si>
   <si>
-    <t>43.0000</t>
-  </si>
-  <si>
     <t>CETAFEN PLUS 30 TAB.</t>
   </si>
   <si>
@@ -467,6 +473,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>INFINITY CARE 50+ SPF LOTION 60 ML</t>
   </si>
   <si>
@@ -857,9 +872,6 @@
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>جنتيانا نقط</t>
   </si>
   <si>
@@ -944,6 +956,9 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">فرش  فوكس عرض</t>
+  </si>
+  <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
@@ -1001,6 +1016,9 @@
     <t>معجون اسنان بارودونتكس 50مل</t>
   </si>
   <si>
+    <t xml:space="preserve">معجون اسنان مسواك صغير </t>
+  </si>
+  <si>
     <t>معجون سنسوداين 50 مل</t>
   </si>
   <si>
@@ -1013,7 +1031,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 10:55 PM</t>
+    <t>Thursday, 24 July, 2025 11:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2050,7 +2068,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2067,7 +2085,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2083,7 +2101,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2093,14 +2111,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2109,14 +2127,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2126,14 +2144,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2142,14 +2160,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2163,10 +2181,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2175,14 +2193,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2192,14 +2210,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2208,14 +2226,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2225,14 +2243,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2248,7 +2266,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2258,14 +2276,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2274,14 +2292,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2291,14 +2309,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2307,14 +2325,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2324,14 +2342,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2340,14 +2358,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2357,14 +2375,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2373,14 +2391,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2390,14 +2408,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2406,14 +2424,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2423,14 +2441,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2439,14 +2457,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2456,14 +2474,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2472,14 +2490,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2489,11 +2507,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>22</v>
@@ -2512,7 +2530,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2522,14 +2540,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2538,14 +2556,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2555,14 +2573,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2571,14 +2589,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2588,11 +2606,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2604,14 +2622,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2621,11 +2639,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2637,7 +2655,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2654,14 +2672,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2670,14 +2688,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2687,14 +2705,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>122</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2703,14 +2721,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2720,14 +2738,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2736,14 +2754,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2753,14 +2771,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2769,14 +2787,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2786,11 +2804,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2802,14 +2820,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2819,11 +2837,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2835,14 +2853,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2852,14 +2870,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2868,14 +2886,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2885,14 +2903,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2908,7 +2926,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2922,10 +2940,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2934,14 +2952,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2951,14 +2969,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2967,14 +2985,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2984,14 +3002,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3000,14 +3018,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3017,14 +3035,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3040,7 +3058,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3050,14 +3068,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3066,14 +3084,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3083,14 +3101,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3106,7 +3124,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3116,11 +3134,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>22</v>
@@ -3132,14 +3150,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3149,11 +3167,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>22</v>
@@ -3165,7 +3183,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3182,11 +3200,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>22</v>
@@ -3205,7 +3223,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3215,14 +3233,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>167</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3231,14 +3249,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3248,14 +3266,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3264,14 +3282,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3281,14 +3299,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3297,14 +3315,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3314,14 +3332,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3330,14 +3348,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3347,14 +3365,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3363,14 +3381,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3380,14 +3398,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3396,14 +3414,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3413,14 +3431,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>82</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3429,14 +3447,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3446,11 +3464,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3469,24 +3487,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3495,14 +3513,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3512,14 +3530,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3541,18 +3559,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3561,20 +3579,20 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3585,7 +3603,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3601,7 +3619,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3611,11 +3629,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>22</v>
@@ -3634,24 +3652,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>62</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>62</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3660,7 +3678,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3677,14 +3695,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>139</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3700,7 +3718,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3717,7 +3735,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3733,7 +3751,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3743,11 +3761,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3766,24 +3784,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3799,24 +3817,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3832,24 +3850,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>122</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3865,24 +3883,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>164</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3891,14 +3909,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3908,14 +3926,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3924,14 +3942,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>103</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3945,10 +3963,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>22</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3957,14 +3975,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3974,14 +3992,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>139</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>22</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3997,7 +4015,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4007,14 +4025,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4023,14 +4041,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4040,14 +4058,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>229</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4056,14 +4074,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4073,14 +4091,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>32</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4089,14 +4107,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4106,14 +4124,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4129,7 +4147,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>103</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4139,11 +4157,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>22</v>
@@ -4155,14 +4173,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4172,11 +4190,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>22</v>
@@ -4188,14 +4206,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4205,11 +4223,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>100</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>101</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>22</v>
@@ -4221,14 +4239,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>105</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4238,11 +4256,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>22</v>
@@ -4254,7 +4272,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4271,14 +4289,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>102</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4287,14 +4305,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>27</v>
+        <v>246</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4304,14 +4322,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4327,7 +4345,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4337,14 +4355,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4353,14 +4371,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4370,14 +4388,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>201</v>
+        <v>36</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>170</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4386,14 +4404,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>138</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4403,11 +4421,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>22</v>
@@ -4419,14 +4437,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4436,11 +4454,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>22</v>
@@ -4459,7 +4477,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>103</v>
+        <v>256</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4469,14 +4487,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>42</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4485,14 +4503,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4502,14 +4520,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>29</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4518,14 +4536,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>260</v>
+        <v>105</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4539,10 +4557,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>85</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4551,14 +4569,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>263</v>
+        <v>89</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4568,14 +4586,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>201</v>
+        <v>99</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>136</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4584,14 +4602,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>103</v>
+        <v>265</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4605,10 +4623,10 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>166</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4624,7 +4642,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>268</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4634,14 +4652,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>268</v>
+        <v>206</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4657,24 +4675,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>271</v>
+        <v>105</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4683,31 +4701,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4716,14 +4734,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>27</v>
+        <v>276</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4733,14 +4751,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4749,14 +4767,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4766,14 +4784,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4789,7 +4807,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>263</v>
+        <v>27</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4822,7 +4840,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>287</v>
+        <v>236</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4832,14 +4850,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>84</v>
+        <v>281</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>251</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4848,14 +4866,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>35</v>
+        <v>268</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4865,11 +4883,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>22</v>
@@ -4881,14 +4899,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>22</v>
+        <v>291</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4898,14 +4916,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>276</v>
+        <v>86</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>22</v>
+        <v>256</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4921,7 +4939,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4931,11 +4949,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>22</v>
@@ -4947,14 +4965,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4964,14 +4982,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4987,7 +5005,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4997,14 +5015,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>299</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5013,14 +5031,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5030,14 +5048,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>162</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>302</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5046,14 +5064,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5063,14 +5081,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>22</v>
+        <v>303</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5079,14 +5097,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>306</v>
+        <v>105</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5096,14 +5114,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>84</v>
+        <v>305</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>307</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>22</v>
+        <v>306</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5112,14 +5130,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5129,11 +5147,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>22</v>
@@ -5145,14 +5163,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5162,11 +5180,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>22</v>
@@ -5178,14 +5196,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5195,14 +5213,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5211,14 +5229,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>62</v>
+        <v>276</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5228,14 +5246,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5244,14 +5262,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5261,11 +5279,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>22</v>
@@ -5277,14 +5295,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5294,14 +5312,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
         <v>282</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5310,14 +5328,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5327,11 +5345,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>22</v>
@@ -5343,14 +5361,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>27</v>
+        <v>321</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5360,14 +5378,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5376,14 +5394,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>251</v>
+        <v>22</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5393,14 +5411,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>36</v>
+        <v>281</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>322</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5426,11 +5444,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>22</v>
@@ -5442,14 +5460,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5459,14 +5477,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>327</v>
+        <v>36</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>85</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5475,14 +5493,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>103</v>
+        <v>256</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5492,14 +5510,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>272</v>
+        <v>36</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5508,14 +5526,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5525,11 +5543,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>236</v>
+        <v>329</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>237</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>22</v>
@@ -5541,14 +5559,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>316</v>
+        <v>138</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5558,11 +5576,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>310</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>22</v>
@@ -5574,14 +5592,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5591,11 +5609,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>22</v>
@@ -5607,14 +5625,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>251</v>
+        <v>22</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5624,11 +5642,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>22</v>
@@ -5640,14 +5658,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>302</v>
+        <v>236</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5657,49 +5675,181 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>336</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>321</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>55</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>313</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>314</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>337</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>35</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>55</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>329</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>330</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>338</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>256</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>55</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>281</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>339</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>306</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>55</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
         <v>277</v>
       </c>
-      <c t="s" r="Q128" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>6649.8850000000002</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
-        <v>334</v>
-      </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
-        <v>335</v>
-      </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
-        <v>336</v>
-      </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>282</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>6812.8850000000002</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
+        <v>340</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>341</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>342</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6318,10 +6468,30 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -1031,7 +1031,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 11:16 PM</t>
+    <t>Thursday, 24 July, 2025 11:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -131,7 +131,7 @@
     <t>210.00</t>
   </si>
   <si>
-    <t>105.0000</t>
+    <t>210.0000</t>
   </si>
   <si>
     <t>AVAZIR 0.3% EYE OINT. 5 GM</t>
@@ -1031,7 +1031,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 11:17 PM</t>
+    <t>Thursday, 24 July, 2025 11:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1870,7 +1870,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1887,7 +1887,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -5819,7 +5819,7 @@
     </row>
     <row r="133" ht="24.75" customHeight="1">
       <c r="P133" s="13">
-        <v>6812.8850000000002</v>
+        <v>6917.8850000000002</v>
       </c>
       <c r="Q133" s="13"/>
     </row>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -1031,7 +1031,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 11:21 PM</t>
+    <t>Thursday, 24 July, 2025 11:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -1031,7 +1031,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 11:24 PM</t>
+    <t>Thursday, 24 July, 2025 11:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -359,6 +359,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>DOLO-D PLUS 20TAB</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>13.5000</t>
+  </si>
+  <si>
     <t>DOLPHIN 12.5MG 10 SUPP</t>
   </si>
   <si>
@@ -515,6 +524,15 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -692,9 +710,6 @@
     <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
   </si>
   <si>
-    <t>27.00</t>
-  </si>
-  <si>
     <t>SOOTONIC HAIR LOTION 120 ML</t>
   </si>
   <si>
@@ -716,6 +731,9 @@
     <t>0:-2</t>
   </si>
   <si>
+    <t>SPASMOFREE 50MG 20 F.C. TABS.</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -803,6 +821,9 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
+    <t>50.4900</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -902,6 +923,9 @@
     <t>رباط ضغط 6سم</t>
   </si>
   <si>
+    <t>ريكسونا حريمي بليه</t>
+  </si>
+  <si>
     <t>زيت فاتيكا وسط 90 مل</t>
   </si>
   <si>
@@ -917,10 +941,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>41:0</t>
+    <t>42:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1031,7 +1052,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 11:29 PM</t>
+    <t>Thursday, 24 July, 2025 11:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2662,21 +2683,21 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2688,7 +2709,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2705,14 +2726,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2728,7 +2749,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2738,14 +2759,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>124</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2754,14 +2775,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2771,14 +2792,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>127</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>124</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2794,7 +2815,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2804,14 +2825,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2827,7 +2848,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2860,7 +2881,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2893,7 +2914,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2903,14 +2924,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2919,14 +2940,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2940,10 +2961,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>84</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2952,14 +2973,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2969,14 +2990,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2992,7 +3013,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3009,7 +3030,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3025,7 +3046,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3042,7 +3063,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3058,7 +3079,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3068,14 +3089,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3084,14 +3105,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3101,14 +3122,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3124,7 +3145,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3141,7 +3162,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3157,7 +3178,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3171,7 +3192,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>22</v>
@@ -3183,14 +3204,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3200,11 +3221,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>22</v>
@@ -3216,14 +3237,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3233,11 +3254,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>22</v>
@@ -3256,7 +3277,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3266,11 +3287,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>22</v>
@@ -3282,14 +3303,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3299,14 +3320,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>172</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3315,14 +3336,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3332,14 +3353,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3348,14 +3369,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3365,14 +3386,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>178</v>
-      </c>
-      <c t="s" r="Q58" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3388,7 +3409,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3398,14 +3419,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3438,7 +3459,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3454,7 +3475,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3464,14 +3485,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3480,14 +3501,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3497,14 +3518,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>84</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3513,14 +3534,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3530,11 +3551,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>22</v>
@@ -3546,31 +3567,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3579,14 +3600,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3596,14 +3617,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3612,7 +3633,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3625,18 +3646,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>32</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3645,31 +3666,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3678,14 +3699,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3695,11 +3716,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>22</v>
@@ -3711,31 +3732,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>65</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3744,7 +3765,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3761,14 +3782,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>142</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3777,14 +3798,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3794,14 +3815,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3810,14 +3831,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3827,11 +3848,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3843,31 +3864,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>122</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3876,31 +3897,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>105</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3909,31 +3930,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>125</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3942,31 +3963,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>105</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>135</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>169</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3975,14 +3996,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3992,14 +4013,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>139</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>84</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4015,7 +4036,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>105</v>
+        <v>227</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4025,14 +4046,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>175</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4041,14 +4062,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4058,14 +4079,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>142</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4074,14 +4095,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4091,14 +4112,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4107,14 +4128,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4124,14 +4145,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>234</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4140,14 +4161,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4157,14 +4178,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4173,14 +4194,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4190,14 +4211,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4213,7 +4234,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4223,14 +4244,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>145</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4239,14 +4260,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4256,11 +4277,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>102</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>103</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>22</v>
@@ -4272,7 +4293,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4289,11 +4310,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>103</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>22</v>
@@ -4305,14 +4326,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>246</v>
+        <v>105</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4322,11 +4343,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>22</v>
@@ -4338,14 +4359,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4355,14 +4376,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>102</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4371,14 +4392,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4388,14 +4409,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4404,14 +4425,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>138</v>
+        <v>252</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4421,11 +4442,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>183</v>
+        <v>110</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>22</v>
@@ -4444,7 +4465,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4454,14 +4475,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>175</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4470,14 +4491,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>256</v>
+        <v>27</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4487,14 +4508,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>43</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4503,14 +4524,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4520,11 +4541,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>22</v>
@@ -4553,14 +4574,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4569,14 +4590,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>89</v>
+        <v>262</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4586,14 +4607,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>84</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4602,14 +4623,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>265</v>
+        <v>105</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4619,14 +4640,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>87</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>138</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4635,14 +4656,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>268</v>
+        <v>105</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4652,14 +4673,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>138</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4668,14 +4689,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4685,14 +4706,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>271</v>
+        <v>99</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>171</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4701,14 +4722,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4722,10 +4743,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4734,31 +4755,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>212</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>27</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4767,31 +4788,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4800,31 +4821,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4833,14 +4854,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4850,14 +4871,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>156</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4866,14 +4887,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4890,7 +4911,7 @@
         <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4906,7 +4927,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>291</v>
+        <v>27</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4916,14 +4937,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>86</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>256</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4939,7 +4960,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>35</v>
+        <v>242</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4949,11 +4970,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>22</v>
@@ -4965,14 +4986,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4982,11 +5003,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>156</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>22</v>
@@ -5005,7 +5026,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>65</v>
+        <v>298</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5015,14 +5036,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>284</v>
+        <v>86</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>22</v>
+        <v>262</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5031,14 +5052,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5048,14 +5069,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5064,14 +5085,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5081,14 +5102,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>302</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>303</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5104,7 +5125,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>105</v>
+        <v>262</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5114,14 +5135,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>305</v>
+        <v>49</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>306</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5130,14 +5151,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5147,11 +5168,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>22</v>
@@ -5163,14 +5184,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>310</v>
+        <v>105</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5180,14 +5201,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>86</v>
+        <v>307</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5196,14 +5217,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5213,14 +5234,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>314</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>22</v>
+        <v>310</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5229,14 +5250,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>276</v>
+        <v>105</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5246,14 +5267,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>314</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>27</v>
+        <v>313</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5262,14 +5283,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>317</v>
+        <v>105</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5279,11 +5300,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>86</v>
+        <v>315</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>22</v>
@@ -5295,14 +5316,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>105</v>
+        <v>317</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5312,14 +5333,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>281</v>
+        <v>86</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5335,7 +5356,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5345,11 +5366,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>22</v>
@@ -5361,14 +5382,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5378,14 +5399,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>86</v>
+        <v>301</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5394,14 +5415,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>22</v>
+        <v>324</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5411,11 +5432,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>281</v>
+        <v>86</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>156</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>22</v>
@@ -5427,14 +5448,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5444,14 +5465,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5460,14 +5481,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5477,14 +5498,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>36</v>
+        <v>284</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5493,14 +5514,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>256</v>
+        <v>328</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5510,14 +5531,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5526,14 +5547,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5543,11 +5564,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>329</v>
+        <v>288</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>330</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>22</v>
@@ -5559,14 +5580,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5576,11 +5597,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>332</v>
+        <v>291</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>87</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>22</v>
@@ -5592,14 +5613,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5609,14 +5630,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>277</v>
+        <v>36</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5625,14 +5646,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5642,14 +5663,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>241</v>
+        <v>36</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>242</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5665,7 +5686,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5675,11 +5696,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>285</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>22</v>
@@ -5691,14 +5712,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>321</v>
+        <v>141</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5708,11 +5729,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>22</v>
@@ -5724,14 +5745,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5741,11 +5762,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>22</v>
@@ -5757,14 +5778,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>256</v>
+        <v>22</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5774,11 +5795,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>156</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>22</v>
@@ -5790,14 +5811,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>306</v>
+        <v>242</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5807,49 +5828,181 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
-      <c r="P133" s="13">
-        <v>6917.8850000000002</v>
-      </c>
-      <c r="Q133" s="13"/>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c t="s" r="A134" s="14">
-        <v>340</v>
-      </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c t="s" r="G134" s="15">
-        <v>341</v>
-      </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c t="s" r="K134" s="17">
-        <v>342</v>
-      </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>343</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>328</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>55</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>320</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>321</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>344</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>35</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>55</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>336</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>337</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>345</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>262</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>55</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>288</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>346</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>313</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>55</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>284</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>289</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="P137" s="13">
+        <v>7043.2150000000001</v>
+      </c>
+      <c r="Q137" s="13"/>
+    </row>
+    <row r="138" ht="16.5" customHeight="1">
+      <c t="s" r="A138" s="14">
+        <v>347</v>
+      </c>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c t="s" r="G138" s="15">
+        <v>348</v>
+      </c>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="16"/>
+      <c t="s" r="K138" s="17">
+        <v>349</v>
+      </c>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="17"/>
+      <c r="P138" s="17"/>
+      <c r="Q138" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="642">
+  <mergeCells count="662">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6488,10 +6641,30 @@
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
     <mergeCell ref="N132:O132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="K138:Q138"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -1052,7 +1052,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 11:34 PM</t>
+    <t>Thursday, 24 July, 2025 11:37 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -266,6 +266,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>CYNCHOLINE 20CAPS.</t>
   </si>
   <si>
@@ -518,6 +530,15 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>KEFLEX 250MG/5ML PD. FOR ORAL SUSP.60ML</t>
+  </si>
+  <si>
+    <t>23.50</t>
+  </si>
+  <si>
+    <t>23.5000</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -737,15 +758,9 @@
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>21.00</t>
   </si>
   <si>
-    <t>21.0000</t>
-  </si>
-  <si>
     <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
   </si>
   <si>
@@ -827,12 +842,15 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8513:0</t>
+    <t>8511:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>14.0000</t>
+  </si>
+  <si>
     <t>XORAXON 1GM I.M. VIAL</t>
   </si>
   <si>
@@ -911,6 +929,15 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
@@ -953,6 +980,15 @@
     <t>12:0</t>
   </si>
   <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>63:0</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>شامبو جونسون 100 مل</t>
   </si>
   <si>
@@ -965,9 +1001,6 @@
     <t>34:0</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
   </si>
   <si>
@@ -995,9 +1028,6 @@
     <t>كريم فيرند لافلي الصغير</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>لبخه كوالين CREAM</t>
   </si>
   <si>
@@ -1052,7 +1082,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 11:37 PM</t>
+    <t>Thursday, 24 July, 2025 11:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2353,7 +2383,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2363,11 +2393,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2379,14 +2409,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2403,7 +2433,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2429,14 +2459,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>84</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2445,14 +2475,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2462,14 +2492,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2478,14 +2508,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2495,14 +2525,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2511,14 +2541,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2528,14 +2558,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2544,14 +2574,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2561,11 +2591,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>22</v>
@@ -2577,14 +2607,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2594,14 +2624,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>84</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2610,14 +2640,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2627,14 +2657,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2643,14 +2673,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2683,21 +2713,21 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2709,28 +2739,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2742,7 +2772,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2759,14 +2789,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2775,14 +2805,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2799,7 +2829,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2808,14 +2838,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2825,14 +2855,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2841,14 +2871,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2858,14 +2888,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2874,14 +2904,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2891,11 +2921,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2907,14 +2937,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2924,11 +2954,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2940,14 +2970,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2964,7 +2994,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2980,7 +3010,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2990,14 +3020,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>84</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3006,14 +3036,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3023,14 +3053,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3039,14 +3069,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3056,14 +3086,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3072,14 +3102,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3089,14 +3119,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3105,14 +3135,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3122,14 +3152,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3138,14 +3168,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3155,14 +3185,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3171,14 +3201,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3188,14 +3218,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3204,14 +3234,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3221,11 +3251,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>22</v>
@@ -3237,14 +3267,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3254,11 +3284,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>22</v>
@@ -3270,14 +3300,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3287,14 +3317,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3303,14 +3333,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3320,11 +3350,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>22</v>
@@ -3336,14 +3366,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3353,11 +3383,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>22</v>
@@ -3369,14 +3399,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3386,14 +3416,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>178</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3402,14 +3432,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3419,14 +3449,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3435,14 +3465,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3459,7 +3489,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3468,14 +3498,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3489,10 +3519,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3501,14 +3531,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3518,14 +3548,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3534,14 +3564,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>65</v>
+        <v>193</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3551,14 +3581,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3567,14 +3597,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3584,14 +3614,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>84</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3600,14 +3630,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3617,11 +3647,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>22</v>
@@ -3633,31 +3663,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3666,14 +3696,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3683,14 +3713,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3699,7 +3729,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3712,18 +3742,18 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3732,31 +3762,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3765,14 +3795,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3782,11 +3812,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>22</v>
@@ -3798,31 +3828,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>65</v>
+        <v>211</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>65</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3831,7 +3861,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3848,14 +3878,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3864,14 +3894,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3881,14 +3911,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3897,14 +3927,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3914,11 +3944,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>153</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3930,31 +3960,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3963,31 +3993,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3996,31 +4026,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>105</v>
+        <v>226</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>129</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4029,31 +4059,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>139</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>175</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4069,7 +4099,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4079,14 +4109,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>142</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>84</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4095,14 +4125,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>105</v>
+        <v>234</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4112,14 +4142,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>117</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>22</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4128,14 +4158,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4145,14 +4175,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>146</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4161,14 +4191,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4178,14 +4208,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4194,14 +4224,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4211,14 +4241,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>239</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4227,7 +4257,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4244,11 +4274,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4260,14 +4290,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>93</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4277,14 +4307,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>246</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4293,14 +4323,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4310,14 +4340,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4326,14 +4356,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4343,11 +4373,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>22</v>
@@ -4359,14 +4389,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4376,11 +4406,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>22</v>
@@ -4392,14 +4422,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4409,11 +4439,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>102</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>22</v>
@@ -4425,14 +4455,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>252</v>
+        <v>109</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4442,11 +4472,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>22</v>
@@ -4458,7 +4488,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4475,14 +4505,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>106</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4491,14 +4521,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>27</v>
+        <v>257</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4508,14 +4538,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4531,7 +4561,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4541,14 +4571,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>189</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>196</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4557,14 +4587,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4574,14 +4604,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>212</v>
+        <v>36</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>181</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4590,14 +4620,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>262</v>
+        <v>145</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4607,11 +4637,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>22</v>
@@ -4623,14 +4653,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4640,11 +4670,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>22</v>
@@ -4663,7 +4693,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4673,14 +4703,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>42</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>268</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4689,14 +4719,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4706,14 +4736,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>99</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4729,7 +4759,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>272</v>
+        <v>109</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4739,14 +4769,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>87</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4762,7 +4792,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>275</v>
+        <v>81</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4772,14 +4802,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>212</v>
+        <v>103</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>141</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4788,14 +4818,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>105</v>
+        <v>277</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4809,10 +4839,10 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>177</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>22</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4821,14 +4851,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>281</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4838,14 +4868,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>280</v>
+        <v>219</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4854,20 +4884,20 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>283</v>
+        <v>109</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4875,10 +4905,10 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4887,31 +4917,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>287</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4920,14 +4950,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>27</v>
+        <v>289</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4937,14 +4967,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4953,14 +4983,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>242</v>
+        <v>293</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4970,14 +5000,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>159</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4986,14 +5016,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>275</v>
+        <v>27</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5003,11 +5033,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>22</v>
@@ -5019,14 +5049,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>298</v>
+        <v>86</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5036,14 +5066,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>86</v>
+        <v>294</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>299</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>262</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5059,7 +5089,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>35</v>
+        <v>281</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5092,7 +5122,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>22</v>
+        <v>304</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5102,14 +5132,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>288</v>
+        <v>90</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>159</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>22</v>
+        <v>267</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5118,14 +5148,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>262</v>
+        <v>307</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5135,11 +5165,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>50</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>22</v>
@@ -5151,14 +5181,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5168,11 +5198,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>22</v>
@@ -5184,14 +5214,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5201,14 +5231,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>308</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5217,14 +5247,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5234,14 +5264,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>273</v>
+        <v>49</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>310</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5250,14 +5280,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5267,14 +5297,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>170</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>313</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5283,14 +5313,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5300,14 +5330,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5316,14 +5346,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>317</v>
+        <v>109</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5333,14 +5363,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>86</v>
+        <v>278</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>318</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>22</v>
+        <v>319</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5349,14 +5379,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5366,14 +5396,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>321</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>22</v>
+        <v>322</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5382,14 +5412,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5399,14 +5429,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5415,14 +5445,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>324</v>
+        <v>109</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5432,11 +5462,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>86</v>
+        <v>327</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>22</v>
@@ -5448,14 +5478,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>105</v>
+        <v>329</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5465,14 +5495,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>288</v>
+        <v>90</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5481,14 +5511,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5498,11 +5528,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>284</v>
+        <v>331</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>22</v>
@@ -5514,14 +5544,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5531,14 +5561,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>86</v>
+        <v>310</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5547,14 +5577,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>22</v>
+        <v>335</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5564,11 +5594,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>288</v>
+        <v>90</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>159</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>22</v>
@@ -5580,14 +5610,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5597,14 +5627,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5613,14 +5643,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5630,14 +5660,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>36</v>
+        <v>290</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5646,14 +5676,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>262</v>
+        <v>307</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5663,14 +5693,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5679,14 +5709,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5696,11 +5726,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>337</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>22</v>
@@ -5712,14 +5742,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5729,11 +5759,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>87</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>22</v>
@@ -5745,14 +5775,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5762,14 +5792,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>284</v>
+        <v>36</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5778,14 +5808,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5795,14 +5825,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>247</v>
+        <v>36</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>248</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5811,14 +5841,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>242</v>
+        <v>27</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5828,11 +5858,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>291</v>
+        <v>346</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>22</v>
@@ -5844,14 +5874,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>328</v>
+        <v>145</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5861,11 +5891,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>321</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>22</v>
@@ -5877,14 +5907,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5894,11 +5924,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>337</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>22</v>
@@ -5910,14 +5940,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5927,11 +5957,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>159</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>22</v>
@@ -5943,14 +5973,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>313</v>
+        <v>86</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -5960,49 +5990,181 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
-      <c r="P137" s="13">
-        <v>7043.2150000000001</v>
-      </c>
-      <c r="Q137" s="13"/>
-    </row>
-    <row r="138" ht="16.5" customHeight="1">
-      <c t="s" r="A138" s="14">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>353</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>307</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>55</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>331</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>332</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>354</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>35</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>55</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>346</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
         <v>347</v>
       </c>
-      <c r="B138" s="14"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c t="s" r="G138" s="15">
-        <v>348</v>
-      </c>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="16"/>
-      <c t="s" r="K138" s="17">
-        <v>349</v>
-      </c>
-      <c r="L138" s="17"/>
-      <c r="M138" s="17"/>
-      <c r="N138" s="17"/>
-      <c r="O138" s="17"/>
-      <c r="P138" s="17"/>
-      <c r="Q138" s="17"/>
+      <c t="s" r="Q138" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>355</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>267</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>55</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>294</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>356</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>322</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>55</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>290</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>295</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="P141" s="13">
+        <v>7159.7150000000001</v>
+      </c>
+      <c r="Q141" s="13"/>
+    </row>
+    <row r="142" ht="16.5" customHeight="1">
+      <c t="s" r="A142" s="14">
+        <v>357</v>
+      </c>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c t="s" r="G142" s="15">
+        <v>358</v>
+      </c>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="16"/>
+      <c t="s" r="K142" s="17">
+        <v>359</v>
+      </c>
+      <c r="L142" s="17"/>
+      <c r="M142" s="17"/>
+      <c r="N142" s="17"/>
+      <c r="O142" s="17"/>
+      <c r="P142" s="17"/>
+      <c r="Q142" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="662">
+  <mergeCells count="682">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6661,10 +6823,30 @@
     <mergeCell ref="H136:K136"/>
     <mergeCell ref="L136:M136"/>
     <mergeCell ref="N136:O136"/>
-    <mergeCell ref="P137:Q137"/>
-    <mergeCell ref="A138:F138"/>
-    <mergeCell ref="G138:I138"/>
-    <mergeCell ref="K138:Q138"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="P141:Q141"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="G142:I142"/>
+    <mergeCell ref="K142:Q142"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-24_00-00.xlsx
+++ b/DaySale_2025-07-24_00-00.xlsx
@@ -695,6 +695,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>QUITAPEX 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
     <t>REBO SACHET</t>
   </si>
   <si>
@@ -1082,7 +1091,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Thursday, 24 July, 2025 11:43 PM</t>
+    <t>Thursday, 24 July, 2025 11:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4066,24 +4075,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4092,7 +4101,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4105,11 +4114,11 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -4132,7 +4141,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>234</v>
+        <v>109</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4142,14 +4151,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>182</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4158,14 +4167,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>31</v>
+        <v>237</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4175,14 +4184,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>146</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>84</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4191,14 +4200,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4208,14 +4217,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4224,7 +4233,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4241,11 +4250,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>121</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>22</v>
@@ -4264,7 +4273,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4274,14 +4283,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4290,14 +4299,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4307,14 +4316,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>246</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4330,7 +4339,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4340,14 +4349,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>249</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4356,14 +4365,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4373,14 +4382,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>149</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>88</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4389,14 +4398,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4406,11 +4415,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>22</v>
@@ -4422,14 +4431,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4439,11 +4448,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>22</v>
@@ -4472,11 +4481,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>106</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>107</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>22</v>
@@ -4488,14 +4497,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4521,14 +4530,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>257</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4538,11 +4547,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>22</v>
@@ -4561,7 +4570,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4571,14 +4580,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>114</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4594,7 +4603,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4604,14 +4613,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4620,14 +4629,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4637,14 +4646,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4653,14 +4662,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4670,11 +4679,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>22</v>
@@ -4686,14 +4695,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>267</v>
+        <v>109</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4703,11 +4712,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>42</v>
+        <v>219</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>22</v>
@@ -4719,14 +4728,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>109</v>
+        <v>270</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4736,11 +4745,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>42</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>22</v>
@@ -4776,7 +4785,7 @@
         <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4792,7 +4801,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4802,14 +4811,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>103</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4818,14 +4827,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4835,14 +4844,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>278</v>
+        <v>103</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4851,14 +4860,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4868,14 +4877,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>219</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>145</v>
+        <v>86</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4891,7 +4900,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>109</v>
+        <v>284</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4901,14 +4910,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>284</v>
+        <v>219</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>184</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>22</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4917,14 +4926,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4934,14 +4943,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4957,24 +4966,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>289</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4983,14 +4992,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5000,11 +5009,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>27</v>
@@ -5016,14 +5025,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>27</v>
+        <v>296</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5040,7 +5049,7 @@
         <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5056,7 +5065,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5066,11 +5075,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>163</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>22</v>
@@ -5082,14 +5091,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>281</v>
+        <v>86</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5099,11 +5108,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>22</v>
@@ -5122,7 +5131,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5132,14 +5141,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>90</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>267</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5172,7 +5181,7 @@
         <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>22</v>
+        <v>270</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5188,7 +5197,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5198,7 +5207,7 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>310</v>
+        <v>90</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
@@ -5221,7 +5230,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5231,11 +5240,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>163</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>22</v>
@@ -5247,14 +5256,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5264,11 +5273,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>49</v>
+        <v>297</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>22</v>
@@ -5280,14 +5289,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>65</v>
+        <v>270</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s